--- a/employees.xlsx
+++ b/employees.xlsx
@@ -7551,13 +7551,13 @@
     <t>التحصيل الدراسي</t>
   </si>
   <si>
-    <t>تاريخ الاستحقاق القادم</t>
-  </si>
-  <si>
     <t>رقم وتاريخ الكتب</t>
   </si>
   <si>
     <t>هندسة اتصالات</t>
+  </si>
+  <si>
+    <t>تاريخ الاستحقاق</t>
   </si>
 </sst>
 </file>
@@ -7565,7 +7565,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -7630,10 +7630,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7944,7 +7944,7 @@
   <dimension ref="A1:L804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7977,13 +7977,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -8006,7 +8006,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="2513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="2514">
   <si>
     <t>الرقم الوظيفي</t>
   </si>
@@ -7558,6 +7558,9 @@
   </si>
   <si>
     <t>تاريخ الاستحقاق</t>
+  </si>
+  <si>
+    <t>بكالوريوس قانون</t>
   </si>
 </sst>
 </file>
@@ -7565,7 +7568,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="d\-mm\-yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -7630,13 +7633,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7943,14 +7946,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L804"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="5" customWidth="1"/>
     <col min="8" max="9" width="25.77734375" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="37.6640625" style="2" customWidth="1"/>
@@ -7976,13 +7979,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>2512</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>2510</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -8014,7 +8017,7 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>46048</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -8046,7 +8049,7 @@
       <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>46049</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -8078,7 +8081,7 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>46050</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -8110,7 +8113,7 @@
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>46051</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -8142,7 +8145,7 @@
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>46052</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -8174,7 +8177,7 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>46053</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -8206,7 +8209,7 @@
       <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>46054</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -8238,7 +8241,7 @@
       <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>46055</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -8270,7 +8273,7 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>46056</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -8302,7 +8305,7 @@
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>46057</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -8334,7 +8337,7 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>46058</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -8366,7 +8369,7 @@
       <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>46059</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -8398,7 +8401,7 @@
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>46060</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -8430,7 +8433,7 @@
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>46061</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -8462,7 +8465,7 @@
       <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>46062</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -8494,7 +8497,7 @@
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>46063</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -8526,7 +8529,7 @@
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>46064</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -8558,7 +8561,7 @@
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>46065</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -8590,7 +8593,7 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>46066</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -8622,7 +8625,7 @@
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>46067</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -8654,7 +8657,7 @@
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>46068</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -8686,7 +8689,7 @@
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>46069</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -8718,7 +8721,7 @@
       <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>46070</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -8750,7 +8753,7 @@
       <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>46071</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -8782,7 +8785,7 @@
       <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>46072</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -8814,7 +8817,7 @@
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>46073</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -8846,7 +8849,7 @@
       <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>46074</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -8878,7 +8881,7 @@
       <c r="F29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>46075</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -8910,7 +8913,7 @@
       <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>46076</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -8942,7 +8945,7 @@
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>46077</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -8974,7 +8977,7 @@
       <c r="F32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>46078</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -9006,7 +9009,7 @@
       <c r="F33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>46079</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -9038,7 +9041,7 @@
       <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>46080</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -9070,7 +9073,7 @@
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>46081</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -9102,7 +9105,7 @@
       <c r="F36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>46082</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -9134,7 +9137,7 @@
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>46083</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -9166,7 +9169,7 @@
       <c r="F38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>46084</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -9198,7 +9201,7 @@
       <c r="F39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>46085</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -9230,7 +9233,7 @@
       <c r="F40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>46086</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -9262,7 +9265,7 @@
       <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>46087</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -9294,7 +9297,7 @@
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>46088</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -9326,7 +9329,7 @@
       <c r="F43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>46089</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -9358,7 +9361,7 @@
       <c r="F44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>46090</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -9390,7 +9393,7 @@
       <c r="F45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>46091</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -9422,7 +9425,7 @@
       <c r="F46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>46092</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -9454,7 +9457,7 @@
       <c r="F47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>46093</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -9486,7 +9489,7 @@
       <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>46094</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -9518,7 +9521,7 @@
       <c r="F49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>46095</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -9550,7 +9553,7 @@
       <c r="F50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <v>46096</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -9582,7 +9585,7 @@
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>46097</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -9614,7 +9617,7 @@
       <c r="F52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>46098</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -9646,7 +9649,7 @@
       <c r="F53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>46099</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -9678,7 +9681,7 @@
       <c r="F54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="5">
         <v>46100</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -9710,7 +9713,7 @@
       <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>46101</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -9742,7 +9745,7 @@
       <c r="F56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>46102</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -9774,7 +9777,7 @@
       <c r="F57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>46103</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -9806,7 +9809,7 @@
       <c r="F58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <v>46104</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -9838,7 +9841,7 @@
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <v>46105</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -9870,7 +9873,7 @@
       <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <v>46106</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -9902,7 +9905,7 @@
       <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <v>46107</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -9934,7 +9937,7 @@
       <c r="F62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="5">
         <v>46108</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -9966,7 +9969,7 @@
       <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="5">
         <v>46109</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -9998,7 +10001,7 @@
       <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="5">
         <v>46110</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -10030,7 +10033,7 @@
       <c r="F65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>46111</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -10062,7 +10065,7 @@
       <c r="F66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <v>46112</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -10094,7 +10097,7 @@
       <c r="F67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>46113</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -10126,7 +10129,7 @@
       <c r="F68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <v>46114</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -10158,7 +10161,7 @@
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>46115</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -10190,7 +10193,7 @@
       <c r="F70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <v>46116</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -10222,7 +10225,7 @@
       <c r="F71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>46117</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -10254,7 +10257,7 @@
       <c r="F72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <v>46118</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -10286,7 +10289,7 @@
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <v>46119</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -10318,7 +10321,7 @@
       <c r="F74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <v>46120</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -10350,7 +10353,7 @@
       <c r="F75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <v>46121</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -10382,7 +10385,7 @@
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="5">
         <v>46122</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -10414,7 +10417,7 @@
       <c r="F77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>46123</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -10446,7 +10449,7 @@
       <c r="F78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="5">
         <v>46124</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -10478,7 +10481,7 @@
       <c r="F79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <v>46125</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -10510,7 +10513,7 @@
       <c r="F80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <v>46126</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -10542,7 +10545,7 @@
       <c r="F81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <v>46127</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -10574,7 +10577,7 @@
       <c r="F82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <v>46128</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -10606,7 +10609,7 @@
       <c r="F83" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>46129</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -10638,7 +10641,7 @@
       <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <v>46130</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -10670,7 +10673,7 @@
       <c r="F85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>46131</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -10702,7 +10705,7 @@
       <c r="F86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <v>46132</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -10734,7 +10737,7 @@
       <c r="F87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>46133</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -10766,7 +10769,7 @@
       <c r="F88" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <v>46134</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -10798,7 +10801,7 @@
       <c r="F89" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <v>46135</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -10830,7 +10833,7 @@
       <c r="F90" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="5">
         <v>46136</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -10862,7 +10865,7 @@
       <c r="F91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <v>46137</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -10894,7 +10897,7 @@
       <c r="F92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="5">
         <v>46138</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -10926,7 +10929,7 @@
       <c r="F93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <v>46139</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -10958,7 +10961,7 @@
       <c r="F94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="5">
         <v>46140</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -10990,7 +10993,7 @@
       <c r="F95" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <v>46141</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -11022,7 +11025,7 @@
       <c r="F96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="5">
         <v>46142</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -11054,7 +11057,7 @@
       <c r="F97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <v>46143</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -11086,7 +11089,7 @@
       <c r="F98" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <v>46144</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -11118,7 +11121,7 @@
       <c r="F99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>46145</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -11150,7 +11153,7 @@
       <c r="F100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <v>46146</v>
       </c>
       <c r="H100" s="2" t="s">
@@ -11182,7 +11185,7 @@
       <c r="F101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>46147</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -11214,7 +11217,7 @@
       <c r="F102" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <v>46148</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -11246,7 +11249,7 @@
       <c r="F103" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <v>46149</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -11278,7 +11281,7 @@
       <c r="F104" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="5">
         <v>46150</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -11310,7 +11313,7 @@
       <c r="F105" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <v>46151</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -11342,7 +11345,7 @@
       <c r="F106" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <v>46152</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -11374,7 +11377,7 @@
       <c r="F107" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="5">
         <v>46153</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -11406,7 +11409,7 @@
       <c r="F108" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="5">
         <v>46154</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -11438,7 +11441,7 @@
       <c r="F109" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="5">
         <v>46155</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -11470,7 +11473,7 @@
       <c r="F110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="5">
         <v>46156</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -11502,7 +11505,7 @@
       <c r="F111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="5">
         <v>46157</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -11534,7 +11537,7 @@
       <c r="F112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="5">
         <v>46158</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -11566,7 +11569,7 @@
       <c r="F113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="5">
         <v>46159</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -11598,7 +11601,7 @@
       <c r="F114" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="5">
         <v>46160</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -11630,7 +11633,7 @@
       <c r="F115" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="5">
         <v>46161</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -11662,7 +11665,7 @@
       <c r="F116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="5">
         <v>46162</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -11694,7 +11697,7 @@
       <c r="F117" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <v>46163</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -11726,7 +11729,7 @@
       <c r="F118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <v>46164</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -11758,7 +11761,7 @@
       <c r="F119" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <v>46165</v>
       </c>
       <c r="H119" s="2" t="s">
@@ -11790,7 +11793,7 @@
       <c r="F120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="5">
         <v>46166</v>
       </c>
       <c r="H120" s="2" t="s">
@@ -11822,7 +11825,7 @@
       <c r="F121" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <v>46167</v>
       </c>
       <c r="H121" s="2" t="s">
@@ -11854,7 +11857,7 @@
       <c r="F122" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="5">
         <v>46168</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -11886,7 +11889,7 @@
       <c r="F123" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="5">
         <v>46169</v>
       </c>
       <c r="H123" s="2" t="s">
@@ -11918,7 +11921,7 @@
       <c r="F124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="5">
         <v>46170</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -11950,7 +11953,7 @@
       <c r="F125" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="5">
         <v>46171</v>
       </c>
       <c r="H125" s="2" t="s">
@@ -11982,7 +11985,7 @@
       <c r="F126" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="5">
         <v>46172</v>
       </c>
       <c r="H126" s="2" t="s">
@@ -12014,7 +12017,7 @@
       <c r="F127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="5">
         <v>46173</v>
       </c>
       <c r="H127" s="2" t="s">
@@ -12046,7 +12049,7 @@
       <c r="F128" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="5">
         <v>46174</v>
       </c>
       <c r="H128" s="2" t="s">
@@ -12078,7 +12081,7 @@
       <c r="F129" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="5">
         <v>46175</v>
       </c>
       <c r="H129" s="2" t="s">
@@ -12110,7 +12113,7 @@
       <c r="F130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="5">
         <v>46176</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -12142,7 +12145,7 @@
       <c r="F131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="5">
         <v>46177</v>
       </c>
       <c r="H131" s="2" t="s">
@@ -12174,7 +12177,7 @@
       <c r="F132" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="5">
         <v>46178</v>
       </c>
       <c r="H132" s="2" t="s">
@@ -12206,7 +12209,7 @@
       <c r="F133" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="5">
         <v>46179</v>
       </c>
       <c r="H133" s="2" t="s">
@@ -12238,7 +12241,7 @@
       <c r="F134" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="5">
         <v>46180</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -12270,7 +12273,7 @@
       <c r="F135" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="5">
         <v>46181</v>
       </c>
       <c r="H135" s="2" t="s">
@@ -12302,7 +12305,7 @@
       <c r="F136" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="5">
         <v>46182</v>
       </c>
       <c r="H136" s="2" t="s">
@@ -12334,7 +12337,7 @@
       <c r="F137" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="5">
         <v>46183</v>
       </c>
       <c r="H137" s="2" t="s">
@@ -12366,7 +12369,7 @@
       <c r="F138" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="5">
         <v>46184</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -12398,7 +12401,7 @@
       <c r="F139" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="5">
         <v>46185</v>
       </c>
       <c r="H139" s="2" t="s">
@@ -12430,7 +12433,7 @@
       <c r="F140" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="5">
         <v>46186</v>
       </c>
       <c r="H140" s="2" t="s">
@@ -12462,7 +12465,7 @@
       <c r="F141" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="5">
         <v>46187</v>
       </c>
       <c r="H141" s="2" t="s">
@@ -12494,7 +12497,7 @@
       <c r="F142" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="5">
         <v>46188</v>
       </c>
       <c r="H142" s="2" t="s">
@@ -12526,7 +12529,7 @@
       <c r="F143" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="5">
         <v>46189</v>
       </c>
       <c r="H143" s="2" t="s">
@@ -12558,7 +12561,7 @@
       <c r="F144" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="5">
         <v>46190</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -12590,7 +12593,7 @@
       <c r="F145" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="5">
         <v>46191</v>
       </c>
       <c r="H145" s="2" t="s">
@@ -12622,7 +12625,7 @@
       <c r="F146" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="5">
         <v>46192</v>
       </c>
       <c r="H146" s="2" t="s">
@@ -12654,7 +12657,7 @@
       <c r="F147" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="5">
         <v>46193</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -12686,7 +12689,7 @@
       <c r="F148" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="5">
         <v>46194</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -12718,7 +12721,7 @@
       <c r="F149" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="5">
         <v>46195</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -12750,7 +12753,7 @@
       <c r="F150" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="5">
         <v>46196</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -12782,7 +12785,7 @@
       <c r="F151" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="5">
         <v>46197</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -12814,7 +12817,7 @@
       <c r="F152" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="5">
         <v>46198</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -12846,7 +12849,7 @@
       <c r="F153" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="5">
         <v>46199</v>
       </c>
       <c r="H153" s="2" t="s">
@@ -12878,7 +12881,7 @@
       <c r="F154" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="5">
         <v>46200</v>
       </c>
       <c r="H154" s="2" t="s">
@@ -12910,7 +12913,7 @@
       <c r="F155" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="5">
         <v>46201</v>
       </c>
       <c r="H155" s="2" t="s">
@@ -12942,7 +12945,7 @@
       <c r="F156" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="5">
         <v>46202</v>
       </c>
       <c r="H156" s="2" t="s">
@@ -12974,7 +12977,7 @@
       <c r="F157" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="5">
         <v>46203</v>
       </c>
       <c r="H157" s="2" t="s">
@@ -13006,7 +13009,7 @@
       <c r="F158" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="5">
         <v>46204</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -13038,7 +13041,7 @@
       <c r="F159" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="5">
         <v>46205</v>
       </c>
       <c r="H159" s="2" t="s">
@@ -13070,7 +13073,7 @@
       <c r="F160" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="5">
         <v>46206</v>
       </c>
       <c r="H160" s="2" t="s">
@@ -13102,7 +13105,7 @@
       <c r="F161" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="5">
         <v>46207</v>
       </c>
       <c r="H161" s="2" t="s">
@@ -13134,7 +13137,7 @@
       <c r="F162" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162" s="5">
         <v>46208</v>
       </c>
       <c r="H162" s="2" t="s">
@@ -13166,7 +13169,7 @@
       <c r="F163" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="5">
         <v>46209</v>
       </c>
       <c r="H163" s="2" t="s">
@@ -13198,7 +13201,7 @@
       <c r="F164" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="5">
         <v>46210</v>
       </c>
       <c r="H164" s="2" t="s">
@@ -13230,7 +13233,7 @@
       <c r="F165" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="5">
         <v>46211</v>
       </c>
       <c r="H165" s="2" t="s">
@@ -13262,7 +13265,7 @@
       <c r="F166" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="5">
         <v>46212</v>
       </c>
       <c r="H166" s="2" t="s">
@@ -13294,7 +13297,7 @@
       <c r="F167" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="5">
         <v>46213</v>
       </c>
       <c r="H167" s="2" t="s">
@@ -13326,7 +13329,7 @@
       <c r="F168" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="5">
         <v>46214</v>
       </c>
       <c r="H168" s="2" t="s">
@@ -13358,7 +13361,7 @@
       <c r="F169" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="5">
         <v>46215</v>
       </c>
       <c r="H169" s="2" t="s">
@@ -13390,7 +13393,7 @@
       <c r="F170" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G170" s="4">
+      <c r="G170" s="5">
         <v>46216</v>
       </c>
       <c r="H170" s="2" t="s">
@@ -13422,7 +13425,7 @@
       <c r="F171" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="5">
         <v>46217</v>
       </c>
       <c r="H171" s="2" t="s">
@@ -13454,7 +13457,7 @@
       <c r="F172" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G172" s="4">
+      <c r="G172" s="5">
         <v>46218</v>
       </c>
       <c r="H172" s="2" t="s">
@@ -13486,7 +13489,7 @@
       <c r="F173" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="5">
         <v>46219</v>
       </c>
       <c r="H173" s="2" t="s">
@@ -13518,7 +13521,7 @@
       <c r="F174" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174" s="5">
         <v>46220</v>
       </c>
       <c r="H174" s="2" t="s">
@@ -13550,7 +13553,7 @@
       <c r="F175" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G175" s="4">
+      <c r="G175" s="5">
         <v>46221</v>
       </c>
       <c r="H175" s="2" t="s">
@@ -13582,7 +13585,7 @@
       <c r="F176" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176" s="5">
         <v>46222</v>
       </c>
       <c r="H176" s="2" t="s">
@@ -13614,7 +13617,7 @@
       <c r="F177" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G177" s="4">
+      <c r="G177" s="5">
         <v>46223</v>
       </c>
       <c r="H177" s="2" t="s">
@@ -13646,7 +13649,7 @@
       <c r="F178" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="5">
         <v>46224</v>
       </c>
       <c r="H178" s="2" t="s">
@@ -13678,7 +13681,7 @@
       <c r="F179" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G179" s="4">
+      <c r="G179" s="5">
         <v>46225</v>
       </c>
       <c r="H179" s="2" t="s">
@@ -13710,7 +13713,7 @@
       <c r="F180" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G180" s="4">
+      <c r="G180" s="5">
         <v>46226</v>
       </c>
       <c r="H180" s="2" t="s">
@@ -13742,7 +13745,7 @@
       <c r="F181" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G181" s="4">
+      <c r="G181" s="5">
         <v>46227</v>
       </c>
       <c r="H181" s="2" t="s">
@@ -13774,7 +13777,7 @@
       <c r="F182" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G182" s="4">
+      <c r="G182" s="5">
         <v>46228</v>
       </c>
       <c r="H182" s="2" t="s">
@@ -13806,7 +13809,7 @@
       <c r="F183" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="5">
         <v>46229</v>
       </c>
       <c r="H183" s="2" t="s">
@@ -13838,7 +13841,7 @@
       <c r="F184" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184" s="5">
         <v>46230</v>
       </c>
       <c r="H184" s="2" t="s">
@@ -13870,7 +13873,7 @@
       <c r="F185" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="5">
         <v>46231</v>
       </c>
       <c r="H185" s="2" t="s">
@@ -13902,7 +13905,7 @@
       <c r="F186" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G186" s="4">
+      <c r="G186" s="5">
         <v>46232</v>
       </c>
       <c r="H186" s="2" t="s">
@@ -13934,7 +13937,7 @@
       <c r="F187" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G187" s="4">
+      <c r="G187" s="5">
         <v>46233</v>
       </c>
       <c r="H187" s="2" t="s">
@@ -13966,7 +13969,7 @@
       <c r="F188" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G188" s="4">
+      <c r="G188" s="5">
         <v>46234</v>
       </c>
       <c r="H188" s="2" t="s">
@@ -13998,7 +14001,7 @@
       <c r="F189" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G189" s="4">
+      <c r="G189" s="5">
         <v>46235</v>
       </c>
       <c r="H189" s="2" t="s">
@@ -14030,7 +14033,7 @@
       <c r="F190" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G190" s="4">
+      <c r="G190" s="5">
         <v>46236</v>
       </c>
       <c r="H190" s="2" t="s">
@@ -14062,7 +14065,7 @@
       <c r="F191" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191" s="5">
         <v>46237</v>
       </c>
       <c r="H191" s="2" t="s">
@@ -14094,7 +14097,7 @@
       <c r="F192" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G192" s="4">
+      <c r="G192" s="5">
         <v>46238</v>
       </c>
       <c r="H192" s="2" t="s">
@@ -14126,7 +14129,7 @@
       <c r="F193" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193" s="5">
         <v>46239</v>
       </c>
       <c r="H193" s="2" t="s">
@@ -14158,7 +14161,7 @@
       <c r="F194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G194" s="4">
+      <c r="G194" s="5">
         <v>46240</v>
       </c>
       <c r="H194" s="2" t="s">
@@ -14190,7 +14193,7 @@
       <c r="F195" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G195" s="4">
+      <c r="G195" s="5">
         <v>46241</v>
       </c>
       <c r="H195" s="2" t="s">
@@ -14222,7 +14225,7 @@
       <c r="F196" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G196" s="4">
+      <c r="G196" s="5">
         <v>46242</v>
       </c>
       <c r="H196" s="2" t="s">
@@ -14254,7 +14257,7 @@
       <c r="F197" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G197" s="4">
+      <c r="G197" s="5">
         <v>46243</v>
       </c>
       <c r="H197" s="2" t="s">
@@ -14286,7 +14289,7 @@
       <c r="F198" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G198" s="4">
+      <c r="G198" s="5">
         <v>46244</v>
       </c>
       <c r="H198" s="2" t="s">
@@ -14318,7 +14321,7 @@
       <c r="F199" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199" s="5">
         <v>46245</v>
       </c>
       <c r="H199" s="2" t="s">
@@ -14350,7 +14353,7 @@
       <c r="F200" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G200" s="4">
+      <c r="G200" s="5">
         <v>46246</v>
       </c>
       <c r="H200" s="2" t="s">
@@ -14382,7 +14385,7 @@
       <c r="F201" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G201" s="4">
+      <c r="G201" s="5">
         <v>46247</v>
       </c>
       <c r="H201" s="2" t="s">
@@ -14414,7 +14417,7 @@
       <c r="F202" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G202" s="4">
+      <c r="G202" s="5">
         <v>46248</v>
       </c>
       <c r="H202" s="2" t="s">
@@ -14446,7 +14449,7 @@
       <c r="F203" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203" s="5">
         <v>46249</v>
       </c>
       <c r="H203" s="2" t="s">
@@ -14478,7 +14481,7 @@
       <c r="F204" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G204" s="4">
+      <c r="G204" s="5">
         <v>46250</v>
       </c>
       <c r="H204" s="2" t="s">
@@ -14510,7 +14513,7 @@
       <c r="F205" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205" s="5">
         <v>46251</v>
       </c>
       <c r="H205" s="2" t="s">
@@ -14542,7 +14545,7 @@
       <c r="F206" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G206" s="4">
+      <c r="G206" s="5">
         <v>46252</v>
       </c>
       <c r="H206" s="2" t="s">
@@ -14574,7 +14577,7 @@
       <c r="F207" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G207" s="4">
+      <c r="G207" s="5">
         <v>46253</v>
       </c>
       <c r="H207" s="2" t="s">
@@ -14606,7 +14609,7 @@
       <c r="F208" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G208" s="4">
+      <c r="G208" s="5">
         <v>46254</v>
       </c>
       <c r="H208" s="2" t="s">
@@ -14638,7 +14641,7 @@
       <c r="F209" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G209" s="4">
+      <c r="G209" s="5">
         <v>46255</v>
       </c>
       <c r="H209" s="2" t="s">
@@ -14670,7 +14673,7 @@
       <c r="F210" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G210" s="4">
+      <c r="G210" s="5">
         <v>46256</v>
       </c>
       <c r="H210" s="2" t="s">
@@ -14702,7 +14705,7 @@
       <c r="F211" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="5">
         <v>46257</v>
       </c>
       <c r="H211" s="2" t="s">
@@ -14734,7 +14737,7 @@
       <c r="F212" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="5">
         <v>46258</v>
       </c>
       <c r="H212" s="2" t="s">
@@ -14766,7 +14769,7 @@
       <c r="F213" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="5">
         <v>46259</v>
       </c>
       <c r="H213" s="2" t="s">
@@ -14798,7 +14801,7 @@
       <c r="F214" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214" s="5">
         <v>46260</v>
       </c>
       <c r="H214" s="2" t="s">
@@ -14830,7 +14833,7 @@
       <c r="F215" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="5">
         <v>46261</v>
       </c>
       <c r="H215" s="2" t="s">
@@ -14862,7 +14865,7 @@
       <c r="F216" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="5">
         <v>46262</v>
       </c>
       <c r="H216" s="2" t="s">
@@ -14894,7 +14897,7 @@
       <c r="F217" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="5">
         <v>46263</v>
       </c>
       <c r="H217" s="2" t="s">
@@ -14926,7 +14929,7 @@
       <c r="F218" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G218" s="4">
+      <c r="G218" s="5">
         <v>46264</v>
       </c>
       <c r="H218" s="2" t="s">
@@ -14958,7 +14961,7 @@
       <c r="F219" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219" s="5">
         <v>46265</v>
       </c>
       <c r="H219" s="2" t="s">
@@ -14990,7 +14993,7 @@
       <c r="F220" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220" s="5">
         <v>46266</v>
       </c>
       <c r="H220" s="2" t="s">
@@ -15016,13 +15019,16 @@
       <c r="C221" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>2513</v>
+      </c>
       <c r="E221" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221" s="5">
         <v>46267</v>
       </c>
       <c r="H221" s="2" t="s">
@@ -15054,7 +15060,7 @@
       <c r="F222" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G222" s="4">
+      <c r="G222" s="5">
         <v>46268</v>
       </c>
       <c r="H222" s="2" t="s">
@@ -15086,7 +15092,7 @@
       <c r="F223" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G223" s="4">
+      <c r="G223" s="5">
         <v>46269</v>
       </c>
       <c r="H223" s="2" t="s">
@@ -15118,7 +15124,7 @@
       <c r="F224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G224" s="4">
+      <c r="G224" s="5">
         <v>46270</v>
       </c>
       <c r="H224" s="2" t="s">
@@ -15150,7 +15156,7 @@
       <c r="F225" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G225" s="4">
+      <c r="G225" s="5">
         <v>46271</v>
       </c>
       <c r="H225" s="2" t="s">
@@ -15182,7 +15188,7 @@
       <c r="F226" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G226" s="4">
+      <c r="G226" s="5">
         <v>46272</v>
       </c>
       <c r="H226" s="2" t="s">
@@ -15214,7 +15220,7 @@
       <c r="F227" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227" s="5">
         <v>46273</v>
       </c>
       <c r="H227" s="2" t="s">
@@ -15246,7 +15252,7 @@
       <c r="F228" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G228" s="4">
+      <c r="G228" s="5">
         <v>46274</v>
       </c>
       <c r="H228" s="2" t="s">
@@ -15278,7 +15284,7 @@
       <c r="F229" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G229" s="4">
+      <c r="G229" s="5">
         <v>46275</v>
       </c>
       <c r="H229" s="2" t="s">
@@ -15310,7 +15316,7 @@
       <c r="F230" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G230" s="4">
+      <c r="G230" s="5">
         <v>46276</v>
       </c>
       <c r="H230" s="2" t="s">
@@ -15342,7 +15348,7 @@
       <c r="F231" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231" s="5">
         <v>46277</v>
       </c>
       <c r="H231" s="2" t="s">
@@ -15374,7 +15380,7 @@
       <c r="F232" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G232" s="4">
+      <c r="G232" s="5">
         <v>46278</v>
       </c>
       <c r="H232" s="2" t="s">
@@ -15406,7 +15412,7 @@
       <c r="F233" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G233" s="4">
+      <c r="G233" s="5">
         <v>46279</v>
       </c>
       <c r="H233" s="2" t="s">
@@ -15438,7 +15444,7 @@
       <c r="F234" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234" s="5">
         <v>46280</v>
       </c>
       <c r="H234" s="2" t="s">
@@ -15470,7 +15476,7 @@
       <c r="F235" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G235" s="4">
+      <c r="G235" s="5">
         <v>46281</v>
       </c>
       <c r="H235" s="2" t="s">
@@ -15502,7 +15508,7 @@
       <c r="F236" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G236" s="4">
+      <c r="G236" s="5">
         <v>46282</v>
       </c>
       <c r="H236" s="2" t="s">
@@ -15534,7 +15540,7 @@
       <c r="F237" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G237" s="4">
+      <c r="G237" s="5">
         <v>46283</v>
       </c>
       <c r="H237" s="2" t="s">
@@ -15566,7 +15572,7 @@
       <c r="F238" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G238" s="4">
+      <c r="G238" s="5">
         <v>46284</v>
       </c>
       <c r="H238" s="2" t="s">
@@ -15598,7 +15604,7 @@
       <c r="F239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239" s="5">
         <v>46285</v>
       </c>
       <c r="H239" s="2" t="s">
@@ -15630,7 +15636,7 @@
       <c r="F240" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G240" s="4">
+      <c r="G240" s="5">
         <v>46286</v>
       </c>
       <c r="H240" s="2" t="s">
@@ -15662,7 +15668,7 @@
       <c r="F241" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G241" s="4">
+      <c r="G241" s="5">
         <v>46287</v>
       </c>
       <c r="H241" s="2" t="s">
@@ -15694,7 +15700,7 @@
       <c r="F242" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G242" s="4">
+      <c r="G242" s="5">
         <v>46288</v>
       </c>
       <c r="H242" s="2" t="s">
@@ -15726,7 +15732,7 @@
       <c r="F243" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G243" s="4">
+      <c r="G243" s="5">
         <v>46289</v>
       </c>
       <c r="H243" s="2" t="s">
@@ -15758,7 +15764,7 @@
       <c r="F244" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G244" s="4">
+      <c r="G244" s="5">
         <v>46290</v>
       </c>
       <c r="H244" s="2" t="s">
@@ -15790,7 +15796,7 @@
       <c r="F245" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G245" s="4">
+      <c r="G245" s="5">
         <v>46291</v>
       </c>
       <c r="H245" s="2" t="s">
@@ -15822,7 +15828,7 @@
       <c r="F246" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G246" s="4">
+      <c r="G246" s="5">
         <v>46292</v>
       </c>
       <c r="H246" s="2" t="s">
@@ -15854,7 +15860,7 @@
       <c r="F247" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G247" s="4">
+      <c r="G247" s="5">
         <v>46293</v>
       </c>
       <c r="H247" s="2" t="s">
@@ -15886,7 +15892,7 @@
       <c r="F248" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G248" s="4">
+      <c r="G248" s="5">
         <v>46294</v>
       </c>
       <c r="H248" s="2" t="s">
@@ -15918,7 +15924,7 @@
       <c r="F249" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G249" s="4">
+      <c r="G249" s="5">
         <v>46295</v>
       </c>
       <c r="H249" s="2" t="s">
@@ -15950,7 +15956,7 @@
       <c r="F250" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G250" s="4">
+      <c r="G250" s="5">
         <v>46296</v>
       </c>
       <c r="H250" s="2" t="s">
@@ -15982,7 +15988,7 @@
       <c r="F251" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G251" s="4">
+      <c r="G251" s="5">
         <v>46297</v>
       </c>
       <c r="H251" s="2" t="s">
@@ -16014,7 +16020,7 @@
       <c r="F252" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G252" s="4">
+      <c r="G252" s="5">
         <v>46298</v>
       </c>
       <c r="H252" s="2" t="s">
@@ -16046,7 +16052,7 @@
       <c r="F253" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G253" s="4">
+      <c r="G253" s="5">
         <v>46299</v>
       </c>
       <c r="H253" s="2" t="s">
@@ -16078,7 +16084,7 @@
       <c r="F254" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G254" s="4">
+      <c r="G254" s="5">
         <v>46300</v>
       </c>
       <c r="H254" s="2" t="s">
@@ -16110,7 +16116,7 @@
       <c r="F255" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G255" s="4">
+      <c r="G255" s="5">
         <v>46301</v>
       </c>
       <c r="H255" s="2" t="s">
@@ -16142,7 +16148,7 @@
       <c r="F256" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G256" s="4">
+      <c r="G256" s="5">
         <v>46302</v>
       </c>
       <c r="H256" s="2" t="s">
@@ -16174,7 +16180,7 @@
       <c r="F257" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G257" s="4">
+      <c r="G257" s="5">
         <v>46303</v>
       </c>
       <c r="H257" s="2" t="s">
@@ -16206,7 +16212,7 @@
       <c r="F258" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G258" s="4">
+      <c r="G258" s="5">
         <v>46304</v>
       </c>
       <c r="H258" s="2" t="s">
@@ -16238,7 +16244,7 @@
       <c r="F259" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G259" s="4">
+      <c r="G259" s="5">
         <v>46305</v>
       </c>
       <c r="H259" s="2" t="s">
@@ -16270,7 +16276,7 @@
       <c r="F260" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G260" s="4">
+      <c r="G260" s="5">
         <v>46306</v>
       </c>
       <c r="H260" s="2" t="s">
@@ -16302,7 +16308,7 @@
       <c r="F261" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G261" s="4">
+      <c r="G261" s="5">
         <v>46307</v>
       </c>
       <c r="H261" s="2" t="s">
@@ -16334,7 +16340,7 @@
       <c r="F262" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G262" s="4">
+      <c r="G262" s="5">
         <v>46308</v>
       </c>
       <c r="H262" s="2" t="s">
@@ -16366,7 +16372,7 @@
       <c r="F263" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G263" s="4">
+      <c r="G263" s="5">
         <v>46309</v>
       </c>
       <c r="H263" s="2" t="s">
@@ -16398,7 +16404,7 @@
       <c r="F264" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G264" s="4">
+      <c r="G264" s="5">
         <v>46310</v>
       </c>
       <c r="H264" s="2" t="s">
@@ -16430,7 +16436,7 @@
       <c r="F265" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G265" s="4">
+      <c r="G265" s="5">
         <v>46311</v>
       </c>
       <c r="H265" s="2" t="s">
@@ -16462,7 +16468,7 @@
       <c r="F266" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G266" s="4">
+      <c r="G266" s="5">
         <v>46312</v>
       </c>
       <c r="H266" s="2" t="s">
@@ -16494,7 +16500,7 @@
       <c r="F267" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G267" s="4">
+      <c r="G267" s="5">
         <v>46313</v>
       </c>
       <c r="H267" s="2" t="s">
@@ -16526,7 +16532,7 @@
       <c r="F268" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G268" s="4">
+      <c r="G268" s="5">
         <v>46314</v>
       </c>
       <c r="H268" s="2" t="s">
@@ -16558,7 +16564,7 @@
       <c r="F269" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G269" s="4">
+      <c r="G269" s="5">
         <v>46315</v>
       </c>
       <c r="H269" s="2" t="s">
@@ -16590,7 +16596,7 @@
       <c r="F270" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G270" s="4">
+      <c r="G270" s="5">
         <v>46316</v>
       </c>
       <c r="H270" s="2" t="s">
@@ -16622,7 +16628,7 @@
       <c r="F271" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G271" s="4">
+      <c r="G271" s="5">
         <v>46317</v>
       </c>
       <c r="H271" s="2" t="s">
@@ -16654,7 +16660,7 @@
       <c r="F272" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G272" s="4">
+      <c r="G272" s="5">
         <v>46318</v>
       </c>
       <c r="H272" s="2" t="s">
@@ -16686,7 +16692,7 @@
       <c r="F273" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G273" s="4">
+      <c r="G273" s="5">
         <v>46319</v>
       </c>
       <c r="H273" s="2" t="s">
@@ -16718,7 +16724,7 @@
       <c r="F274" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G274" s="4">
+      <c r="G274" s="5">
         <v>46320</v>
       </c>
       <c r="H274" s="2" t="s">
@@ -16750,7 +16756,7 @@
       <c r="F275" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G275" s="4">
+      <c r="G275" s="5">
         <v>46321</v>
       </c>
       <c r="H275" s="2" t="s">
@@ -16782,7 +16788,7 @@
       <c r="F276" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G276" s="4">
+      <c r="G276" s="5">
         <v>46322</v>
       </c>
       <c r="H276" s="2" t="s">
@@ -16814,7 +16820,7 @@
       <c r="F277" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G277" s="4">
+      <c r="G277" s="5">
         <v>46323</v>
       </c>
       <c r="H277" s="2" t="s">
@@ -16846,7 +16852,7 @@
       <c r="F278" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G278" s="4">
+      <c r="G278" s="5">
         <v>46324</v>
       </c>
       <c r="H278" s="2" t="s">
@@ -16878,7 +16884,7 @@
       <c r="F279" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G279" s="4">
+      <c r="G279" s="5">
         <v>46325</v>
       </c>
       <c r="H279" s="2" t="s">
@@ -16910,7 +16916,7 @@
       <c r="F280" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G280" s="4">
+      <c r="G280" s="5">
         <v>46326</v>
       </c>
       <c r="H280" s="2" t="s">
@@ -16942,7 +16948,7 @@
       <c r="F281" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G281" s="4">
+      <c r="G281" s="5">
         <v>46327</v>
       </c>
       <c r="H281" s="2" t="s">
@@ -16974,7 +16980,7 @@
       <c r="F282" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G282" s="4">
+      <c r="G282" s="5">
         <v>46328</v>
       </c>
       <c r="H282" s="2" t="s">
@@ -17006,7 +17012,7 @@
       <c r="F283" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G283" s="4">
+      <c r="G283" s="5">
         <v>46329</v>
       </c>
       <c r="H283" s="2" t="s">
@@ -17038,7 +17044,7 @@
       <c r="F284" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G284" s="4">
+      <c r="G284" s="5">
         <v>46330</v>
       </c>
       <c r="H284" s="2" t="s">
@@ -17070,7 +17076,7 @@
       <c r="F285" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G285" s="4">
+      <c r="G285" s="5">
         <v>46331</v>
       </c>
       <c r="H285" s="2" t="s">
@@ -17102,7 +17108,7 @@
       <c r="F286" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G286" s="4">
+      <c r="G286" s="5">
         <v>46332</v>
       </c>
       <c r="H286" s="2" t="s">
@@ -17134,7 +17140,7 @@
       <c r="F287" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G287" s="4">
+      <c r="G287" s="5">
         <v>46333</v>
       </c>
       <c r="H287" s="2" t="s">
@@ -17166,7 +17172,7 @@
       <c r="F288" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G288" s="4">
+      <c r="G288" s="5">
         <v>46334</v>
       </c>
       <c r="H288" s="2" t="s">
@@ -17198,7 +17204,7 @@
       <c r="F289" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G289" s="4">
+      <c r="G289" s="5">
         <v>46335</v>
       </c>
       <c r="H289" s="2" t="s">
@@ -17230,7 +17236,7 @@
       <c r="F290" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G290" s="4">
+      <c r="G290" s="5">
         <v>46336</v>
       </c>
       <c r="H290" s="2" t="s">
@@ -17262,7 +17268,7 @@
       <c r="F291" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G291" s="4">
+      <c r="G291" s="5">
         <v>46337</v>
       </c>
       <c r="H291" s="2" t="s">
@@ -17294,7 +17300,7 @@
       <c r="F292" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G292" s="4">
+      <c r="G292" s="5">
         <v>46338</v>
       </c>
       <c r="H292" s="2" t="s">
@@ -17326,7 +17332,7 @@
       <c r="F293" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G293" s="4">
+      <c r="G293" s="5">
         <v>46339</v>
       </c>
       <c r="H293" s="2" t="s">
@@ -17358,7 +17364,7 @@
       <c r="F294" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G294" s="4">
+      <c r="G294" s="5">
         <v>46340</v>
       </c>
       <c r="H294" s="2" t="s">
@@ -17390,7 +17396,7 @@
       <c r="F295" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G295" s="4">
+      <c r="G295" s="5">
         <v>46341</v>
       </c>
       <c r="H295" s="2" t="s">
@@ -17422,7 +17428,7 @@
       <c r="F296" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G296" s="4">
+      <c r="G296" s="5">
         <v>46342</v>
       </c>
       <c r="H296" s="2" t="s">
@@ -17454,7 +17460,7 @@
       <c r="F297" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G297" s="4">
+      <c r="G297" s="5">
         <v>46343</v>
       </c>
       <c r="H297" s="2" t="s">
@@ -17486,7 +17492,7 @@
       <c r="F298" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G298" s="4">
+      <c r="G298" s="5">
         <v>46344</v>
       </c>
       <c r="H298" s="2" t="s">
@@ -17518,7 +17524,7 @@
       <c r="F299" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G299" s="4">
+      <c r="G299" s="5">
         <v>46345</v>
       </c>
       <c r="H299" s="2" t="s">
@@ -17550,7 +17556,7 @@
       <c r="F300" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G300" s="4">
+      <c r="G300" s="5">
         <v>46346</v>
       </c>
       <c r="H300" s="2" t="s">
@@ -17582,7 +17588,7 @@
       <c r="F301" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G301" s="4">
+      <c r="G301" s="5">
         <v>46347</v>
       </c>
       <c r="H301" s="2" t="s">
@@ -17614,7 +17620,7 @@
       <c r="F302" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G302" s="4">
+      <c r="G302" s="5">
         <v>46348</v>
       </c>
       <c r="H302" s="2" t="s">
@@ -17646,7 +17652,7 @@
       <c r="F303" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G303" s="4">
+      <c r="G303" s="5">
         <v>46349</v>
       </c>
       <c r="H303" s="2" t="s">
@@ -17678,7 +17684,7 @@
       <c r="F304" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G304" s="4">
+      <c r="G304" s="5">
         <v>46350</v>
       </c>
       <c r="H304" s="2" t="s">
@@ -17710,7 +17716,7 @@
       <c r="F305" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G305" s="4">
+      <c r="G305" s="5">
         <v>46351</v>
       </c>
       <c r="H305" s="2" t="s">
@@ -17742,7 +17748,7 @@
       <c r="F306" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G306" s="4">
+      <c r="G306" s="5">
         <v>46352</v>
       </c>
       <c r="H306" s="2" t="s">
@@ -17774,7 +17780,7 @@
       <c r="F307" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G307" s="4">
+      <c r="G307" s="5">
         <v>46353</v>
       </c>
       <c r="H307" s="2" t="s">
@@ -17806,7 +17812,7 @@
       <c r="F308" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G308" s="4">
+      <c r="G308" s="5">
         <v>46354</v>
       </c>
       <c r="H308" s="2" t="s">
@@ -17838,7 +17844,7 @@
       <c r="F309" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G309" s="4">
+      <c r="G309" s="5">
         <v>46355</v>
       </c>
       <c r="H309" s="2" t="s">
@@ -17870,7 +17876,7 @@
       <c r="F310" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G310" s="4">
+      <c r="G310" s="5">
         <v>46356</v>
       </c>
       <c r="H310" s="2" t="s">
@@ -17902,7 +17908,7 @@
       <c r="F311" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G311" s="4">
+      <c r="G311" s="5">
         <v>46357</v>
       </c>
       <c r="H311" s="2" t="s">
@@ -17934,7 +17940,7 @@
       <c r="F312" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G312" s="4">
+      <c r="G312" s="5">
         <v>46358</v>
       </c>
       <c r="H312" s="2" t="s">
@@ -17966,7 +17972,7 @@
       <c r="F313" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G313" s="4">
+      <c r="G313" s="5">
         <v>46359</v>
       </c>
       <c r="H313" s="2" t="s">
@@ -17998,7 +18004,7 @@
       <c r="F314" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G314" s="4">
+      <c r="G314" s="5">
         <v>46360</v>
       </c>
       <c r="H314" s="2" t="s">
@@ -18030,7 +18036,7 @@
       <c r="F315" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G315" s="4">
+      <c r="G315" s="5">
         <v>46361</v>
       </c>
       <c r="H315" s="2" t="s">
@@ -18062,7 +18068,7 @@
       <c r="F316" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="4">
+      <c r="G316" s="5">
         <v>46362</v>
       </c>
       <c r="H316" s="2" t="s">
@@ -18094,7 +18100,7 @@
       <c r="F317" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G317" s="4">
+      <c r="G317" s="5">
         <v>46363</v>
       </c>
       <c r="H317" s="2" t="s">
@@ -18126,7 +18132,7 @@
       <c r="F318" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G318" s="4">
+      <c r="G318" s="5">
         <v>46364</v>
       </c>
       <c r="H318" s="2" t="s">
@@ -18158,7 +18164,7 @@
       <c r="F319" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G319" s="4">
+      <c r="G319" s="5">
         <v>46365</v>
       </c>
       <c r="H319" s="2" t="s">
@@ -18190,7 +18196,7 @@
       <c r="F320" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G320" s="4">
+      <c r="G320" s="5">
         <v>46366</v>
       </c>
       <c r="H320" s="2" t="s">
@@ -18222,7 +18228,7 @@
       <c r="F321" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G321" s="4">
+      <c r="G321" s="5">
         <v>46367</v>
       </c>
       <c r="H321" s="2" t="s">
@@ -18254,7 +18260,7 @@
       <c r="F322" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G322" s="4">
+      <c r="G322" s="5">
         <v>46368</v>
       </c>
       <c r="H322" s="2" t="s">
@@ -18286,7 +18292,7 @@
       <c r="F323" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G323" s="4">
+      <c r="G323" s="5">
         <v>46369</v>
       </c>
       <c r="H323" s="2" t="s">
@@ -18318,7 +18324,7 @@
       <c r="F324" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G324" s="4">
+      <c r="G324" s="5">
         <v>46370</v>
       </c>
       <c r="H324" s="2" t="s">
@@ -18350,7 +18356,7 @@
       <c r="F325" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G325" s="4">
+      <c r="G325" s="5">
         <v>46371</v>
       </c>
       <c r="H325" s="2" t="s">
@@ -18382,7 +18388,7 @@
       <c r="F326" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G326" s="4">
+      <c r="G326" s="5">
         <v>46372</v>
       </c>
       <c r="H326" s="2" t="s">
@@ -18414,7 +18420,7 @@
       <c r="F327" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G327" s="4">
+      <c r="G327" s="5">
         <v>46373</v>
       </c>
       <c r="H327" s="2" t="s">
@@ -18446,7 +18452,7 @@
       <c r="F328" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G328" s="4">
+      <c r="G328" s="5">
         <v>46374</v>
       </c>
       <c r="H328" s="2" t="s">
@@ -18478,7 +18484,7 @@
       <c r="F329" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G329" s="4">
+      <c r="G329" s="5">
         <v>46375</v>
       </c>
       <c r="H329" s="2" t="s">
@@ -18510,7 +18516,7 @@
       <c r="F330" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G330" s="4">
+      <c r="G330" s="5">
         <v>46376</v>
       </c>
       <c r="H330" s="2" t="s">
@@ -18542,7 +18548,7 @@
       <c r="F331" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G331" s="4">
+      <c r="G331" s="5">
         <v>46377</v>
       </c>
       <c r="H331" s="2" t="s">
@@ -18574,7 +18580,7 @@
       <c r="F332" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G332" s="4">
+      <c r="G332" s="5">
         <v>46378</v>
       </c>
       <c r="H332" s="2" t="s">
@@ -18606,7 +18612,7 @@
       <c r="F333" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G333" s="4">
+      <c r="G333" s="5">
         <v>46379</v>
       </c>
       <c r="H333" s="2" t="s">
@@ -18638,7 +18644,7 @@
       <c r="F334" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G334" s="4">
+      <c r="G334" s="5">
         <v>46380</v>
       </c>
       <c r="H334" s="2" t="s">
@@ -18670,7 +18676,7 @@
       <c r="F335" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G335" s="4">
+      <c r="G335" s="5">
         <v>46381</v>
       </c>
       <c r="H335" s="2" t="s">
@@ -18702,7 +18708,7 @@
       <c r="F336" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G336" s="4">
+      <c r="G336" s="5">
         <v>46382</v>
       </c>
       <c r="H336" s="2" t="s">
@@ -18734,7 +18740,7 @@
       <c r="F337" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G337" s="4">
+      <c r="G337" s="5">
         <v>46383</v>
       </c>
       <c r="H337" s="2" t="s">
@@ -18766,7 +18772,7 @@
       <c r="F338" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G338" s="4">
+      <c r="G338" s="5">
         <v>46384</v>
       </c>
       <c r="H338" s="2" t="s">
@@ -18798,7 +18804,7 @@
       <c r="F339" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G339" s="4">
+      <c r="G339" s="5">
         <v>46385</v>
       </c>
       <c r="H339" s="2" t="s">
@@ -18830,7 +18836,7 @@
       <c r="F340" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G340" s="4">
+      <c r="G340" s="5">
         <v>46386</v>
       </c>
       <c r="H340" s="2" t="s">
@@ -18862,7 +18868,7 @@
       <c r="F341" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G341" s="4">
+      <c r="G341" s="5">
         <v>46387</v>
       </c>
       <c r="H341" s="2" t="s">
@@ -18894,7 +18900,7 @@
       <c r="F342" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G342" s="4">
+      <c r="G342" s="5">
         <v>46388</v>
       </c>
       <c r="H342" s="2" t="s">
@@ -18926,7 +18932,7 @@
       <c r="F343" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G343" s="4">
+      <c r="G343" s="5">
         <v>46389</v>
       </c>
       <c r="H343" s="2" t="s">
@@ -18958,7 +18964,7 @@
       <c r="F344" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G344" s="4">
+      <c r="G344" s="5">
         <v>46390</v>
       </c>
       <c r="H344" s="2" t="s">
@@ -18990,7 +18996,7 @@
       <c r="F345" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G345" s="4">
+      <c r="G345" s="5">
         <v>46391</v>
       </c>
       <c r="H345" s="2" t="s">
@@ -19022,7 +19028,7 @@
       <c r="F346" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G346" s="4">
+      <c r="G346" s="5">
         <v>46392</v>
       </c>
       <c r="H346" s="2" t="s">
@@ -19054,7 +19060,7 @@
       <c r="F347" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G347" s="4">
+      <c r="G347" s="5">
         <v>46393</v>
       </c>
       <c r="H347" s="2" t="s">
@@ -19086,7 +19092,7 @@
       <c r="F348" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G348" s="4">
+      <c r="G348" s="5">
         <v>46394</v>
       </c>
       <c r="H348" s="2" t="s">
@@ -19118,7 +19124,7 @@
       <c r="F349" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G349" s="4">
+      <c r="G349" s="5">
         <v>46395</v>
       </c>
       <c r="H349" s="2" t="s">
@@ -19150,7 +19156,7 @@
       <c r="F350" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G350" s="4">
+      <c r="G350" s="5">
         <v>46396</v>
       </c>
       <c r="H350" s="2" t="s">
@@ -19182,7 +19188,7 @@
       <c r="F351" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G351" s="4">
+      <c r="G351" s="5">
         <v>46397</v>
       </c>
       <c r="H351" s="2" t="s">
@@ -19214,7 +19220,7 @@
       <c r="F352" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G352" s="4">
+      <c r="G352" s="5">
         <v>46398</v>
       </c>
       <c r="H352" s="2" t="s">
@@ -19246,7 +19252,7 @@
       <c r="F353" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G353" s="4">
+      <c r="G353" s="5">
         <v>46399</v>
       </c>
       <c r="H353" s="2" t="s">
@@ -19278,7 +19284,7 @@
       <c r="F354" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G354" s="4">
+      <c r="G354" s="5">
         <v>46400</v>
       </c>
       <c r="H354" s="2" t="s">
@@ -19310,7 +19316,7 @@
       <c r="F355" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G355" s="4">
+      <c r="G355" s="5">
         <v>46401</v>
       </c>
       <c r="H355" s="2" t="s">
@@ -19342,7 +19348,7 @@
       <c r="F356" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G356" s="4">
+      <c r="G356" s="5">
         <v>46402</v>
       </c>
       <c r="H356" s="2" t="s">
@@ -19374,7 +19380,7 @@
       <c r="F357" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G357" s="4">
+      <c r="G357" s="5">
         <v>46403</v>
       </c>
       <c r="H357" s="2" t="s">
@@ -19406,7 +19412,7 @@
       <c r="F358" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G358" s="4">
+      <c r="G358" s="5">
         <v>46404</v>
       </c>
       <c r="H358" s="2" t="s">
@@ -19438,7 +19444,7 @@
       <c r="F359" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G359" s="4">
+      <c r="G359" s="5">
         <v>46405</v>
       </c>
       <c r="H359" s="2" t="s">
@@ -19470,7 +19476,7 @@
       <c r="F360" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G360" s="4">
+      <c r="G360" s="5">
         <v>46406</v>
       </c>
       <c r="H360" s="2" t="s">
@@ -19502,7 +19508,7 @@
       <c r="F361" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G361" s="4">
+      <c r="G361" s="5">
         <v>46407</v>
       </c>
       <c r="H361" s="2" t="s">
@@ -19534,7 +19540,7 @@
       <c r="F362" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G362" s="4">
+      <c r="G362" s="5">
         <v>46408</v>
       </c>
       <c r="H362" s="2" t="s">
@@ -19566,7 +19572,7 @@
       <c r="F363" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G363" s="4">
+      <c r="G363" s="5">
         <v>46409</v>
       </c>
       <c r="H363" s="2" t="s">
@@ -19598,7 +19604,7 @@
       <c r="F364" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G364" s="4">
+      <c r="G364" s="5">
         <v>46410</v>
       </c>
       <c r="H364" s="2" t="s">
@@ -19630,7 +19636,7 @@
       <c r="F365" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G365" s="4">
+      <c r="G365" s="5">
         <v>46411</v>
       </c>
       <c r="H365" s="2" t="s">
@@ -19662,7 +19668,7 @@
       <c r="F366" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G366" s="4">
+      <c r="G366" s="5">
         <v>46412</v>
       </c>
       <c r="H366" s="2" t="s">
@@ -19694,7 +19700,7 @@
       <c r="F367" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G367" s="4">
+      <c r="G367" s="5">
         <v>46413</v>
       </c>
       <c r="H367" s="2" t="s">
@@ -19726,7 +19732,7 @@
       <c r="F368" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G368" s="4">
+      <c r="G368" s="5">
         <v>46414</v>
       </c>
       <c r="H368" s="2" t="s">
@@ -19758,7 +19764,7 @@
       <c r="F369" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G369" s="4">
+      <c r="G369" s="5">
         <v>46415</v>
       </c>
       <c r="H369" s="2" t="s">
@@ -19790,7 +19796,7 @@
       <c r="F370" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G370" s="4">
+      <c r="G370" s="5">
         <v>46416</v>
       </c>
       <c r="H370" s="2" t="s">
@@ -19822,7 +19828,7 @@
       <c r="F371" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G371" s="4">
+      <c r="G371" s="5">
         <v>46417</v>
       </c>
       <c r="H371" s="2" t="s">
@@ -19854,7 +19860,7 @@
       <c r="F372" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G372" s="4">
+      <c r="G372" s="5">
         <v>46418</v>
       </c>
       <c r="H372" s="2" t="s">
@@ -19886,7 +19892,7 @@
       <c r="F373" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G373" s="4">
+      <c r="G373" s="5">
         <v>46419</v>
       </c>
       <c r="H373" s="2" t="s">
@@ -19918,7 +19924,7 @@
       <c r="F374" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G374" s="4">
+      <c r="G374" s="5">
         <v>46420</v>
       </c>
       <c r="H374" s="2" t="s">
@@ -19950,7 +19956,7 @@
       <c r="F375" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G375" s="4">
+      <c r="G375" s="5">
         <v>46421</v>
       </c>
       <c r="H375" s="2" t="s">
@@ -19982,7 +19988,7 @@
       <c r="F376" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G376" s="4">
+      <c r="G376" s="5">
         <v>46422</v>
       </c>
       <c r="H376" s="2" t="s">
@@ -20014,7 +20020,7 @@
       <c r="F377" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G377" s="4">
+      <c r="G377" s="5">
         <v>46423</v>
       </c>
       <c r="H377" s="2" t="s">
@@ -20046,7 +20052,7 @@
       <c r="F378" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G378" s="4">
+      <c r="G378" s="5">
         <v>46424</v>
       </c>
       <c r="H378" s="2" t="s">
@@ -20078,7 +20084,7 @@
       <c r="F379" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G379" s="4">
+      <c r="G379" s="5">
         <v>46425</v>
       </c>
       <c r="H379" s="2" t="s">
@@ -20110,7 +20116,7 @@
       <c r="F380" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G380" s="4">
+      <c r="G380" s="5">
         <v>46426</v>
       </c>
       <c r="H380" s="2" t="s">
@@ -20142,7 +20148,7 @@
       <c r="F381" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G381" s="4">
+      <c r="G381" s="5">
         <v>46427</v>
       </c>
       <c r="H381" s="2" t="s">
@@ -20174,7 +20180,7 @@
       <c r="F382" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G382" s="4">
+      <c r="G382" s="5">
         <v>46428</v>
       </c>
       <c r="H382" s="2" t="s">
@@ -20206,7 +20212,7 @@
       <c r="F383" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G383" s="4">
+      <c r="G383" s="5">
         <v>46429</v>
       </c>
       <c r="H383" s="2" t="s">
@@ -20238,7 +20244,7 @@
       <c r="F384" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G384" s="4">
+      <c r="G384" s="5">
         <v>46430</v>
       </c>
       <c r="H384" s="2" t="s">
@@ -20270,7 +20276,7 @@
       <c r="F385" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G385" s="4">
+      <c r="G385" s="5">
         <v>46431</v>
       </c>
       <c r="H385" s="2" t="s">
@@ -20302,7 +20308,7 @@
       <c r="F386" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G386" s="4">
+      <c r="G386" s="5">
         <v>46432</v>
       </c>
       <c r="H386" s="2" t="s">
@@ -20334,7 +20340,7 @@
       <c r="F387" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G387" s="4">
+      <c r="G387" s="5">
         <v>46433</v>
       </c>
       <c r="H387" s="2" t="s">
@@ -20366,7 +20372,7 @@
       <c r="F388" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G388" s="4">
+      <c r="G388" s="5">
         <v>46434</v>
       </c>
       <c r="H388" s="2" t="s">
@@ -20398,7 +20404,7 @@
       <c r="F389" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G389" s="4">
+      <c r="G389" s="5">
         <v>46435</v>
       </c>
       <c r="H389" s="2" t="s">
@@ -20430,7 +20436,7 @@
       <c r="F390" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G390" s="4">
+      <c r="G390" s="5">
         <v>46436</v>
       </c>
       <c r="H390" s="2" t="s">
@@ -20462,7 +20468,7 @@
       <c r="F391" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G391" s="4">
+      <c r="G391" s="5">
         <v>46437</v>
       </c>
       <c r="H391" s="2" t="s">
@@ -20494,7 +20500,7 @@
       <c r="F392" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G392" s="4">
+      <c r="G392" s="5">
         <v>46438</v>
       </c>
       <c r="H392" s="2" t="s">
@@ -20526,7 +20532,7 @@
       <c r="F393" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G393" s="4">
+      <c r="G393" s="5">
         <v>46439</v>
       </c>
       <c r="H393" s="2" t="s">
@@ -20558,7 +20564,7 @@
       <c r="F394" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G394" s="4">
+      <c r="G394" s="5">
         <v>46440</v>
       </c>
       <c r="H394" s="2" t="s">
@@ -20590,7 +20596,7 @@
       <c r="F395" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G395" s="4">
+      <c r="G395" s="5">
         <v>46441</v>
       </c>
       <c r="H395" s="2" t="s">
@@ -20622,7 +20628,7 @@
       <c r="F396" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G396" s="4">
+      <c r="G396" s="5">
         <v>46442</v>
       </c>
       <c r="H396" s="2" t="s">
@@ -20654,7 +20660,7 @@
       <c r="F397" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G397" s="4">
+      <c r="G397" s="5">
         <v>46443</v>
       </c>
       <c r="H397" s="2" t="s">
@@ -20686,7 +20692,7 @@
       <c r="F398" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G398" s="4">
+      <c r="G398" s="5">
         <v>46444</v>
       </c>
       <c r="H398" s="2" t="s">
@@ -20718,7 +20724,7 @@
       <c r="F399" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G399" s="4">
+      <c r="G399" s="5">
         <v>46445</v>
       </c>
       <c r="H399" s="2" t="s">
@@ -20750,7 +20756,7 @@
       <c r="F400" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G400" s="4">
+      <c r="G400" s="5">
         <v>46446</v>
       </c>
       <c r="H400" s="2" t="s">
@@ -20782,7 +20788,7 @@
       <c r="F401" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G401" s="4">
+      <c r="G401" s="5">
         <v>46447</v>
       </c>
       <c r="H401" s="2" t="s">
@@ -20814,7 +20820,7 @@
       <c r="F402" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G402" s="4">
+      <c r="G402" s="5">
         <v>46448</v>
       </c>
       <c r="H402" s="2" t="s">
@@ -20846,7 +20852,7 @@
       <c r="F403" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G403" s="4">
+      <c r="G403" s="5">
         <v>46449</v>
       </c>
       <c r="H403" s="2" t="s">
@@ -20878,7 +20884,7 @@
       <c r="F404" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G404" s="4">
+      <c r="G404" s="5">
         <v>46450</v>
       </c>
       <c r="H404" s="2" t="s">
@@ -20910,7 +20916,7 @@
       <c r="F405" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G405" s="4">
+      <c r="G405" s="5">
         <v>46451</v>
       </c>
       <c r="H405" s="2" t="s">
@@ -20942,7 +20948,7 @@
       <c r="F406" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G406" s="4">
+      <c r="G406" s="5">
         <v>46452</v>
       </c>
       <c r="H406" s="2" t="s">
@@ -20974,7 +20980,7 @@
       <c r="F407" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G407" s="4">
+      <c r="G407" s="5">
         <v>46453</v>
       </c>
       <c r="H407" s="2" t="s">
@@ -21006,7 +21012,7 @@
       <c r="F408" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G408" s="4">
+      <c r="G408" s="5">
         <v>46454</v>
       </c>
       <c r="H408" s="2" t="s">
@@ -21038,7 +21044,7 @@
       <c r="F409" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G409" s="4">
+      <c r="G409" s="5">
         <v>46455</v>
       </c>
       <c r="H409" s="2" t="s">
@@ -21070,7 +21076,7 @@
       <c r="F410" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G410" s="4">
+      <c r="G410" s="5">
         <v>46456</v>
       </c>
       <c r="H410" s="2" t="s">
@@ -21102,7 +21108,7 @@
       <c r="F411" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G411" s="4">
+      <c r="G411" s="5">
         <v>46457</v>
       </c>
       <c r="H411" s="2" t="s">
@@ -21134,7 +21140,7 @@
       <c r="F412" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G412" s="4">
+      <c r="G412" s="5">
         <v>46458</v>
       </c>
       <c r="H412" s="2" t="s">
@@ -21166,7 +21172,7 @@
       <c r="F413" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G413" s="4">
+      <c r="G413" s="5">
         <v>46459</v>
       </c>
       <c r="H413" s="2" t="s">
@@ -21198,7 +21204,7 @@
       <c r="F414" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G414" s="4">
+      <c r="G414" s="5">
         <v>46460</v>
       </c>
       <c r="H414" s="2" t="s">
@@ -21230,7 +21236,7 @@
       <c r="F415" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G415" s="4">
+      <c r="G415" s="5">
         <v>46461</v>
       </c>
       <c r="H415" s="2" t="s">
@@ -21262,7 +21268,7 @@
       <c r="F416" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G416" s="4">
+      <c r="G416" s="5">
         <v>46462</v>
       </c>
       <c r="H416" s="2" t="s">
@@ -21294,7 +21300,7 @@
       <c r="F417" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G417" s="4">
+      <c r="G417" s="5">
         <v>46463</v>
       </c>
       <c r="H417" s="2" t="s">
@@ -21326,7 +21332,7 @@
       <c r="F418" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G418" s="4">
+      <c r="G418" s="5">
         <v>46464</v>
       </c>
       <c r="H418" s="2" t="s">
@@ -21358,7 +21364,7 @@
       <c r="F419" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G419" s="4">
+      <c r="G419" s="5">
         <v>46465</v>
       </c>
       <c r="H419" s="2" t="s">
@@ -21390,7 +21396,7 @@
       <c r="F420" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G420" s="4">
+      <c r="G420" s="5">
         <v>46466</v>
       </c>
       <c r="H420" s="2" t="s">
@@ -21422,7 +21428,7 @@
       <c r="F421" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G421" s="4">
+      <c r="G421" s="5">
         <v>46467</v>
       </c>
       <c r="H421" s="2" t="s">
@@ -21454,7 +21460,7 @@
       <c r="F422" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G422" s="4">
+      <c r="G422" s="5">
         <v>46468</v>
       </c>
       <c r="H422" s="2" t="s">
@@ -21486,7 +21492,7 @@
       <c r="F423" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G423" s="4">
+      <c r="G423" s="5">
         <v>46469</v>
       </c>
       <c r="H423" s="2" t="s">
@@ -21518,7 +21524,7 @@
       <c r="F424" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G424" s="4">
+      <c r="G424" s="5">
         <v>46470</v>
       </c>
       <c r="H424" s="2" t="s">
@@ -21550,7 +21556,7 @@
       <c r="F425" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G425" s="4">
+      <c r="G425" s="5">
         <v>46471</v>
       </c>
       <c r="H425" s="2" t="s">
@@ -21582,7 +21588,7 @@
       <c r="F426" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G426" s="4">
+      <c r="G426" s="5">
         <v>46472</v>
       </c>
       <c r="H426" s="2" t="s">
@@ -21614,7 +21620,7 @@
       <c r="F427" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G427" s="4">
+      <c r="G427" s="5">
         <v>46473</v>
       </c>
       <c r="H427" s="2" t="s">
@@ -21646,7 +21652,7 @@
       <c r="F428" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G428" s="4">
+      <c r="G428" s="5">
         <v>46474</v>
       </c>
       <c r="H428" s="2" t="s">
@@ -21678,7 +21684,7 @@
       <c r="F429" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G429" s="4">
+      <c r="G429" s="5">
         <v>46475</v>
       </c>
       <c r="H429" s="2" t="s">
@@ -21710,7 +21716,7 @@
       <c r="F430" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G430" s="4">
+      <c r="G430" s="5">
         <v>46476</v>
       </c>
       <c r="H430" s="2" t="s">
@@ -21742,7 +21748,7 @@
       <c r="F431" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G431" s="4">
+      <c r="G431" s="5">
         <v>46477</v>
       </c>
       <c r="H431" s="2" t="s">
@@ -21774,7 +21780,7 @@
       <c r="F432" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G432" s="4">
+      <c r="G432" s="5">
         <v>46478</v>
       </c>
       <c r="H432" s="2" t="s">
@@ -21806,7 +21812,7 @@
       <c r="F433" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G433" s="4">
+      <c r="G433" s="5">
         <v>46479</v>
       </c>
       <c r="H433" s="2" t="s">
@@ -21838,7 +21844,7 @@
       <c r="F434" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G434" s="4">
+      <c r="G434" s="5">
         <v>46480</v>
       </c>
       <c r="H434" s="2" t="s">
@@ -21870,7 +21876,7 @@
       <c r="F435" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G435" s="4">
+      <c r="G435" s="5">
         <v>46481</v>
       </c>
       <c r="H435" s="2" t="s">
@@ -21902,7 +21908,7 @@
       <c r="F436" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G436" s="4">
+      <c r="G436" s="5">
         <v>46482</v>
       </c>
       <c r="H436" s="2" t="s">
@@ -21934,7 +21940,7 @@
       <c r="F437" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G437" s="4">
+      <c r="G437" s="5">
         <v>46483</v>
       </c>
       <c r="H437" s="2" t="s">
@@ -21966,7 +21972,7 @@
       <c r="F438" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G438" s="4">
+      <c r="G438" s="5">
         <v>46484</v>
       </c>
       <c r="H438" s="2" t="s">
@@ -21998,7 +22004,7 @@
       <c r="F439" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G439" s="4">
+      <c r="G439" s="5">
         <v>46485</v>
       </c>
       <c r="H439" s="2" t="s">
@@ -22030,7 +22036,7 @@
       <c r="F440" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G440" s="4">
+      <c r="G440" s="5">
         <v>46486</v>
       </c>
       <c r="H440" s="2" t="s">
@@ -22062,7 +22068,7 @@
       <c r="F441" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G441" s="4">
+      <c r="G441" s="5">
         <v>46487</v>
       </c>
       <c r="H441" s="2" t="s">
@@ -22094,7 +22100,7 @@
       <c r="F442" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G442" s="4">
+      <c r="G442" s="5">
         <v>46488</v>
       </c>
       <c r="H442" s="2" t="s">
@@ -22126,7 +22132,7 @@
       <c r="F443" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G443" s="4">
+      <c r="G443" s="5">
         <v>46489</v>
       </c>
       <c r="H443" s="2" t="s">
@@ -22158,7 +22164,7 @@
       <c r="F444" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G444" s="4">
+      <c r="G444" s="5">
         <v>46490</v>
       </c>
       <c r="H444" s="2" t="s">
@@ -22190,7 +22196,7 @@
       <c r="F445" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G445" s="4">
+      <c r="G445" s="5">
         <v>46491</v>
       </c>
       <c r="H445" s="2" t="s">
@@ -22222,7 +22228,7 @@
       <c r="F446" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G446" s="4">
+      <c r="G446" s="5">
         <v>46492</v>
       </c>
       <c r="H446" s="2" t="s">
@@ -22254,7 +22260,7 @@
       <c r="F447" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G447" s="4">
+      <c r="G447" s="5">
         <v>46493</v>
       </c>
       <c r="H447" s="2" t="s">
@@ -22286,7 +22292,7 @@
       <c r="F448" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G448" s="4">
+      <c r="G448" s="5">
         <v>46494</v>
       </c>
       <c r="H448" s="2" t="s">
@@ -22318,7 +22324,7 @@
       <c r="F449" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G449" s="4">
+      <c r="G449" s="5">
         <v>46495</v>
       </c>
       <c r="H449" s="2" t="s">
@@ -22350,7 +22356,7 @@
       <c r="F450" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G450" s="4">
+      <c r="G450" s="5">
         <v>46496</v>
       </c>
       <c r="H450" s="2" t="s">
@@ -22382,7 +22388,7 @@
       <c r="F451" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G451" s="4">
+      <c r="G451" s="5">
         <v>46497</v>
       </c>
       <c r="H451" s="2" t="s">
@@ -22414,7 +22420,7 @@
       <c r="F452" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G452" s="4">
+      <c r="G452" s="5">
         <v>46498</v>
       </c>
       <c r="H452" s="2" t="s">
@@ -22446,7 +22452,7 @@
       <c r="F453" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G453" s="4">
+      <c r="G453" s="5">
         <v>46499</v>
       </c>
       <c r="H453" s="2" t="s">
@@ -22478,7 +22484,7 @@
       <c r="F454" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G454" s="4">
+      <c r="G454" s="5">
         <v>46500</v>
       </c>
       <c r="H454" s="2" t="s">
@@ -22510,7 +22516,7 @@
       <c r="F455" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G455" s="4">
+      <c r="G455" s="5">
         <v>46501</v>
       </c>
       <c r="H455" s="2" t="s">
@@ -22542,7 +22548,7 @@
       <c r="F456" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G456" s="4">
+      <c r="G456" s="5">
         <v>46502</v>
       </c>
       <c r="H456" s="2" t="s">
@@ -22574,7 +22580,7 @@
       <c r="F457" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G457" s="4">
+      <c r="G457" s="5">
         <v>46503</v>
       </c>
       <c r="H457" s="2" t="s">
@@ -22606,7 +22612,7 @@
       <c r="F458" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G458" s="4">
+      <c r="G458" s="5">
         <v>46504</v>
       </c>
       <c r="H458" s="2" t="s">
@@ -22638,7 +22644,7 @@
       <c r="F459" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G459" s="4">
+      <c r="G459" s="5">
         <v>46505</v>
       </c>
       <c r="H459" s="2" t="s">
@@ -22670,7 +22676,7 @@
       <c r="F460" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G460" s="4">
+      <c r="G460" s="5">
         <v>46506</v>
       </c>
       <c r="H460" s="2" t="s">
@@ -22702,7 +22708,7 @@
       <c r="F461" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G461" s="4">
+      <c r="G461" s="5">
         <v>46507</v>
       </c>
       <c r="H461" s="2" t="s">
@@ -22734,7 +22740,7 @@
       <c r="F462" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G462" s="4">
+      <c r="G462" s="5">
         <v>46508</v>
       </c>
       <c r="H462" s="2" t="s">
@@ -22766,7 +22772,7 @@
       <c r="F463" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G463" s="4">
+      <c r="G463" s="5">
         <v>46509</v>
       </c>
       <c r="H463" s="2" t="s">
@@ -22798,7 +22804,7 @@
       <c r="F464" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G464" s="4">
+      <c r="G464" s="5">
         <v>46510</v>
       </c>
       <c r="H464" s="2" t="s">
@@ -22830,7 +22836,7 @@
       <c r="F465" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G465" s="4">
+      <c r="G465" s="5">
         <v>46511</v>
       </c>
       <c r="H465" s="2" t="s">
@@ -22862,7 +22868,7 @@
       <c r="F466" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G466" s="4">
+      <c r="G466" s="5">
         <v>46512</v>
       </c>
       <c r="H466" s="2" t="s">
@@ -22894,7 +22900,7 @@
       <c r="F467" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G467" s="4">
+      <c r="G467" s="5">
         <v>46513</v>
       </c>
       <c r="H467" s="2" t="s">
@@ -22926,7 +22932,7 @@
       <c r="F468" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G468" s="4">
+      <c r="G468" s="5">
         <v>46514</v>
       </c>
       <c r="H468" s="2" t="s">
@@ -22958,7 +22964,7 @@
       <c r="F469" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G469" s="4">
+      <c r="G469" s="5">
         <v>46515</v>
       </c>
       <c r="H469" s="2" t="s">
@@ -22990,7 +22996,7 @@
       <c r="F470" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G470" s="4">
+      <c r="G470" s="5">
         <v>46516</v>
       </c>
       <c r="H470" s="2" t="s">
@@ -23022,7 +23028,7 @@
       <c r="F471" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G471" s="4">
+      <c r="G471" s="5">
         <v>46517</v>
       </c>
       <c r="H471" s="2" t="s">
@@ -23054,7 +23060,7 @@
       <c r="F472" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G472" s="4">
+      <c r="G472" s="5">
         <v>46518</v>
       </c>
       <c r="H472" s="2" t="s">
@@ -23086,7 +23092,7 @@
       <c r="F473" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G473" s="4">
+      <c r="G473" s="5">
         <v>46519</v>
       </c>
       <c r="H473" s="2" t="s">
@@ -23118,7 +23124,7 @@
       <c r="F474" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G474" s="4">
+      <c r="G474" s="5">
         <v>46520</v>
       </c>
       <c r="H474" s="2" t="s">
@@ -23150,7 +23156,7 @@
       <c r="F475" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G475" s="4">
+      <c r="G475" s="5">
         <v>46521</v>
       </c>
       <c r="H475" s="2" t="s">
@@ -23182,7 +23188,7 @@
       <c r="F476" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G476" s="4">
+      <c r="G476" s="5">
         <v>46522</v>
       </c>
       <c r="H476" s="2" t="s">
@@ -23214,7 +23220,7 @@
       <c r="F477" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G477" s="4">
+      <c r="G477" s="5">
         <v>46523</v>
       </c>
       <c r="H477" s="2" t="s">
@@ -23246,7 +23252,7 @@
       <c r="F478" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G478" s="4">
+      <c r="G478" s="5">
         <v>46524</v>
       </c>
       <c r="H478" s="2" t="s">
@@ -23278,7 +23284,7 @@
       <c r="F479" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G479" s="4">
+      <c r="G479" s="5">
         <v>46525</v>
       </c>
       <c r="H479" s="2" t="s">
@@ -23310,7 +23316,7 @@
       <c r="F480" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G480" s="4">
+      <c r="G480" s="5">
         <v>46526</v>
       </c>
       <c r="H480" s="2" t="s">
@@ -23342,7 +23348,7 @@
       <c r="F481" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G481" s="4">
+      <c r="G481" s="5">
         <v>46527</v>
       </c>
       <c r="H481" s="2" t="s">
@@ -23374,7 +23380,7 @@
       <c r="F482" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G482" s="4">
+      <c r="G482" s="5">
         <v>46528</v>
       </c>
       <c r="H482" s="2" t="s">
@@ -23406,7 +23412,7 @@
       <c r="F483" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G483" s="4">
+      <c r="G483" s="5">
         <v>46529</v>
       </c>
       <c r="H483" s="2" t="s">
@@ -23438,7 +23444,7 @@
       <c r="F484" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G484" s="4">
+      <c r="G484" s="5">
         <v>46530</v>
       </c>
       <c r="H484" s="2" t="s">
@@ -23470,7 +23476,7 @@
       <c r="F485" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G485" s="4">
+      <c r="G485" s="5">
         <v>46531</v>
       </c>
       <c r="H485" s="2" t="s">
@@ -23502,7 +23508,7 @@
       <c r="F486" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G486" s="4">
+      <c r="G486" s="5">
         <v>46532</v>
       </c>
       <c r="H486" s="2" t="s">
@@ -23534,7 +23540,7 @@
       <c r="F487" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G487" s="4">
+      <c r="G487" s="5">
         <v>46533</v>
       </c>
       <c r="H487" s="2" t="s">
@@ -23566,7 +23572,7 @@
       <c r="F488" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G488" s="4">
+      <c r="G488" s="5">
         <v>46534</v>
       </c>
       <c r="H488" s="2" t="s">
@@ -23598,7 +23604,7 @@
       <c r="F489" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G489" s="4">
+      <c r="G489" s="5">
         <v>46535</v>
       </c>
       <c r="H489" s="2" t="s">
@@ -23630,7 +23636,7 @@
       <c r="F490" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G490" s="4">
+      <c r="G490" s="5">
         <v>46536</v>
       </c>
       <c r="H490" s="2" t="s">
@@ -23662,7 +23668,7 @@
       <c r="F491" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G491" s="4">
+      <c r="G491" s="5">
         <v>46537</v>
       </c>
       <c r="H491" s="2" t="s">
@@ -23694,7 +23700,7 @@
       <c r="F492" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G492" s="4">
+      <c r="G492" s="5">
         <v>46538</v>
       </c>
       <c r="H492" s="2" t="s">
@@ -23726,7 +23732,7 @@
       <c r="F493" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G493" s="4">
+      <c r="G493" s="5">
         <v>46539</v>
       </c>
       <c r="H493" s="2" t="s">
@@ -23758,7 +23764,7 @@
       <c r="F494" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G494" s="4">
+      <c r="G494" s="5">
         <v>46540</v>
       </c>
       <c r="H494" s="2" t="s">
@@ -23790,7 +23796,7 @@
       <c r="F495" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G495" s="4">
+      <c r="G495" s="5">
         <v>46541</v>
       </c>
       <c r="H495" s="2" t="s">
@@ -23822,7 +23828,7 @@
       <c r="F496" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G496" s="4">
+      <c r="G496" s="5">
         <v>46542</v>
       </c>
       <c r="H496" s="2" t="s">
@@ -23854,7 +23860,7 @@
       <c r="F497" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G497" s="4">
+      <c r="G497" s="5">
         <v>46543</v>
       </c>
       <c r="H497" s="2" t="s">
@@ -23886,7 +23892,7 @@
       <c r="F498" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G498" s="4">
+      <c r="G498" s="5">
         <v>46544</v>
       </c>
       <c r="H498" s="2" t="s">
@@ -23918,7 +23924,7 @@
       <c r="F499" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G499" s="4">
+      <c r="G499" s="5">
         <v>46545</v>
       </c>
       <c r="H499" s="2" t="s">
@@ -23950,7 +23956,7 @@
       <c r="F500" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G500" s="4">
+      <c r="G500" s="5">
         <v>46546</v>
       </c>
       <c r="H500" s="2" t="s">
@@ -23982,7 +23988,7 @@
       <c r="F501" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G501" s="4">
+      <c r="G501" s="5">
         <v>46547</v>
       </c>
       <c r="H501" s="2" t="s">
@@ -24014,7 +24020,7 @@
       <c r="F502" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G502" s="4">
+      <c r="G502" s="5">
         <v>46548</v>
       </c>
       <c r="H502" s="2" t="s">
@@ -24046,7 +24052,7 @@
       <c r="F503" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G503" s="4">
+      <c r="G503" s="5">
         <v>46549</v>
       </c>
       <c r="H503" s="2" t="s">
@@ -24078,7 +24084,7 @@
       <c r="F504" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G504" s="4">
+      <c r="G504" s="5">
         <v>46550</v>
       </c>
       <c r="H504" s="2" t="s">
@@ -24110,7 +24116,7 @@
       <c r="F505" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G505" s="4">
+      <c r="G505" s="5">
         <v>46551</v>
       </c>
       <c r="H505" s="2" t="s">
@@ -24142,7 +24148,7 @@
       <c r="F506" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G506" s="4">
+      <c r="G506" s="5">
         <v>46552</v>
       </c>
       <c r="H506" s="2" t="s">
@@ -24174,7 +24180,7 @@
       <c r="F507" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G507" s="4">
+      <c r="G507" s="5">
         <v>46553</v>
       </c>
       <c r="H507" s="2" t="s">
@@ -24206,7 +24212,7 @@
       <c r="F508" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G508" s="4">
+      <c r="G508" s="5">
         <v>46554</v>
       </c>
       <c r="H508" s="2" t="s">
@@ -24238,7 +24244,7 @@
       <c r="F509" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G509" s="4">
+      <c r="G509" s="5">
         <v>46555</v>
       </c>
       <c r="H509" s="2" t="s">
@@ -24270,7 +24276,7 @@
       <c r="F510" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G510" s="4">
+      <c r="G510" s="5">
         <v>46556</v>
       </c>
       <c r="H510" s="2" t="s">
@@ -24302,7 +24308,7 @@
       <c r="F511" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G511" s="4">
+      <c r="G511" s="5">
         <v>46557</v>
       </c>
       <c r="H511" s="2" t="s">
@@ -24334,7 +24340,7 @@
       <c r="F512" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G512" s="4">
+      <c r="G512" s="5">
         <v>46558</v>
       </c>
       <c r="H512" s="2" t="s">
@@ -24366,7 +24372,7 @@
       <c r="F513" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G513" s="4">
+      <c r="G513" s="5">
         <v>46559</v>
       </c>
       <c r="H513" s="2" t="s">
@@ -24398,7 +24404,7 @@
       <c r="F514" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G514" s="4">
+      <c r="G514" s="5">
         <v>46560</v>
       </c>
       <c r="H514" s="2" t="s">
@@ -24430,7 +24436,7 @@
       <c r="F515" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G515" s="4">
+      <c r="G515" s="5">
         <v>46561</v>
       </c>
       <c r="H515" s="2" t="s">
@@ -24462,7 +24468,7 @@
       <c r="F516" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G516" s="4">
+      <c r="G516" s="5">
         <v>46562</v>
       </c>
       <c r="H516" s="2" t="s">
@@ -24494,7 +24500,7 @@
       <c r="F517" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G517" s="4">
+      <c r="G517" s="5">
         <v>46563</v>
       </c>
       <c r="H517" s="2" t="s">
@@ -24526,7 +24532,7 @@
       <c r="F518" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G518" s="4">
+      <c r="G518" s="5">
         <v>46564</v>
       </c>
       <c r="H518" s="2" t="s">
@@ -24558,7 +24564,7 @@
       <c r="F519" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G519" s="4">
+      <c r="G519" s="5">
         <v>46565</v>
       </c>
       <c r="H519" s="2" t="s">
@@ -24590,7 +24596,7 @@
       <c r="F520" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G520" s="4">
+      <c r="G520" s="5">
         <v>46566</v>
       </c>
       <c r="H520" s="2" t="s">
@@ -24622,7 +24628,7 @@
       <c r="F521" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G521" s="4">
+      <c r="G521" s="5">
         <v>46567</v>
       </c>
       <c r="H521" s="2" t="s">
@@ -24654,7 +24660,7 @@
       <c r="F522" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G522" s="4">
+      <c r="G522" s="5">
         <v>46568</v>
       </c>
       <c r="H522" s="2" t="s">
@@ -24686,7 +24692,7 @@
       <c r="F523" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G523" s="4">
+      <c r="G523" s="5">
         <v>46569</v>
       </c>
       <c r="H523" s="2" t="s">
@@ -24718,7 +24724,7 @@
       <c r="F524" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G524" s="4">
+      <c r="G524" s="5">
         <v>46570</v>
       </c>
       <c r="H524" s="2" t="s">
@@ -24750,7 +24756,7 @@
       <c r="F525" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G525" s="4">
+      <c r="G525" s="5">
         <v>46571</v>
       </c>
       <c r="H525" s="2" t="s">
@@ -24782,7 +24788,7 @@
       <c r="F526" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G526" s="4">
+      <c r="G526" s="5">
         <v>46572</v>
       </c>
       <c r="H526" s="2" t="s">
@@ -24814,7 +24820,7 @@
       <c r="F527" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G527" s="4">
+      <c r="G527" s="5">
         <v>46573</v>
       </c>
       <c r="H527" s="2" t="s">
@@ -24846,7 +24852,7 @@
       <c r="F528" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G528" s="4">
+      <c r="G528" s="5">
         <v>46574</v>
       </c>
       <c r="H528" s="2" t="s">
@@ -24878,7 +24884,7 @@
       <c r="F529" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G529" s="4">
+      <c r="G529" s="5">
         <v>46575</v>
       </c>
       <c r="H529" s="2" t="s">
@@ -24910,7 +24916,7 @@
       <c r="F530" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G530" s="4">
+      <c r="G530" s="5">
         <v>46576</v>
       </c>
       <c r="H530" s="2" t="s">
@@ -24942,7 +24948,7 @@
       <c r="F531" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G531" s="4">
+      <c r="G531" s="5">
         <v>46577</v>
       </c>
       <c r="H531" s="2" t="s">
@@ -24974,7 +24980,7 @@
       <c r="F532" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G532" s="4">
+      <c r="G532" s="5">
         <v>46578</v>
       </c>
       <c r="H532" s="2" t="s">
@@ -25006,7 +25012,7 @@
       <c r="F533" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G533" s="4">
+      <c r="G533" s="5">
         <v>46579</v>
       </c>
       <c r="H533" s="2" t="s">
@@ -25038,7 +25044,7 @@
       <c r="F534" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G534" s="4">
+      <c r="G534" s="5">
         <v>46580</v>
       </c>
       <c r="H534" s="2" t="s">
@@ -25070,7 +25076,7 @@
       <c r="F535" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G535" s="4">
+      <c r="G535" s="5">
         <v>46581</v>
       </c>
       <c r="H535" s="2" t="s">
@@ -25102,7 +25108,7 @@
       <c r="F536" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G536" s="4">
+      <c r="G536" s="5">
         <v>46582</v>
       </c>
       <c r="H536" s="2" t="s">
@@ -25134,7 +25140,7 @@
       <c r="F537" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G537" s="4">
+      <c r="G537" s="5">
         <v>46583</v>
       </c>
       <c r="H537" s="2" t="s">
@@ -25166,7 +25172,7 @@
       <c r="F538" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G538" s="4">
+      <c r="G538" s="5">
         <v>46584</v>
       </c>
       <c r="H538" s="2" t="s">
@@ -25198,7 +25204,7 @@
       <c r="F539" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G539" s="4">
+      <c r="G539" s="5">
         <v>46585</v>
       </c>
       <c r="H539" s="2" t="s">
@@ -25230,7 +25236,7 @@
       <c r="F540" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G540" s="4">
+      <c r="G540" s="5">
         <v>46586</v>
       </c>
       <c r="H540" s="2" t="s">
@@ -25262,7 +25268,7 @@
       <c r="F541" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G541" s="4">
+      <c r="G541" s="5">
         <v>46587</v>
       </c>
       <c r="H541" s="2" t="s">
@@ -25294,7 +25300,7 @@
       <c r="F542" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G542" s="4">
+      <c r="G542" s="5">
         <v>46588</v>
       </c>
       <c r="H542" s="2" t="s">
@@ -25326,7 +25332,7 @@
       <c r="F543" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G543" s="4">
+      <c r="G543" s="5">
         <v>46589</v>
       </c>
       <c r="H543" s="2" t="s">
@@ -25358,7 +25364,7 @@
       <c r="F544" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G544" s="4">
+      <c r="G544" s="5">
         <v>46590</v>
       </c>
       <c r="H544" s="2" t="s">
@@ -25390,7 +25396,7 @@
       <c r="F545" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G545" s="4">
+      <c r="G545" s="5">
         <v>46591</v>
       </c>
       <c r="H545" s="2" t="s">
@@ -25422,7 +25428,7 @@
       <c r="F546" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G546" s="4">
+      <c r="G546" s="5">
         <v>46592</v>
       </c>
       <c r="H546" s="2" t="s">
@@ -25454,7 +25460,7 @@
       <c r="F547" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G547" s="4">
+      <c r="G547" s="5">
         <v>46593</v>
       </c>
       <c r="H547" s="2" t="s">
@@ -25486,7 +25492,7 @@
       <c r="F548" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G548" s="4">
+      <c r="G548" s="5">
         <v>46594</v>
       </c>
       <c r="H548" s="2" t="s">
@@ -25518,7 +25524,7 @@
       <c r="F549" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G549" s="4">
+      <c r="G549" s="5">
         <v>46595</v>
       </c>
       <c r="H549" s="2" t="s">
@@ -25550,7 +25556,7 @@
       <c r="F550" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G550" s="4">
+      <c r="G550" s="5">
         <v>46596</v>
       </c>
       <c r="H550" s="2" t="s">
@@ -25582,7 +25588,7 @@
       <c r="F551" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G551" s="4">
+      <c r="G551" s="5">
         <v>46597</v>
       </c>
       <c r="H551" s="2" t="s">
@@ -25614,7 +25620,7 @@
       <c r="F552" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G552" s="4">
+      <c r="G552" s="5">
         <v>46598</v>
       </c>
       <c r="H552" s="2" t="s">
@@ -25646,7 +25652,7 @@
       <c r="F553" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G553" s="4">
+      <c r="G553" s="5">
         <v>46599</v>
       </c>
       <c r="H553" s="2" t="s">
@@ -25678,7 +25684,7 @@
       <c r="F554" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G554" s="4">
+      <c r="G554" s="5">
         <v>46600</v>
       </c>
       <c r="H554" s="2" t="s">
@@ -25710,7 +25716,7 @@
       <c r="F555" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G555" s="4">
+      <c r="G555" s="5">
         <v>46601</v>
       </c>
       <c r="H555" s="2" t="s">
@@ -25742,7 +25748,7 @@
       <c r="F556" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G556" s="4">
+      <c r="G556" s="5">
         <v>46602</v>
       </c>
       <c r="H556" s="2" t="s">
@@ -25774,7 +25780,7 @@
       <c r="F557" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G557" s="4">
+      <c r="G557" s="5">
         <v>46603</v>
       </c>
       <c r="H557" s="2" t="s">
@@ -25806,7 +25812,7 @@
       <c r="F558" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G558" s="4">
+      <c r="G558" s="5">
         <v>46604</v>
       </c>
       <c r="H558" s="2" t="s">
@@ -25838,7 +25844,7 @@
       <c r="F559" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G559" s="4">
+      <c r="G559" s="5">
         <v>46605</v>
       </c>
       <c r="H559" s="2" t="s">
@@ -25870,7 +25876,7 @@
       <c r="F560" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G560" s="4">
+      <c r="G560" s="5">
         <v>46606</v>
       </c>
       <c r="H560" s="2" t="s">
@@ -25902,7 +25908,7 @@
       <c r="F561" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G561" s="4">
+      <c r="G561" s="5">
         <v>46607</v>
       </c>
       <c r="H561" s="2" t="s">
@@ -25934,7 +25940,7 @@
       <c r="F562" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G562" s="4">
+      <c r="G562" s="5">
         <v>46608</v>
       </c>
       <c r="H562" s="2" t="s">
@@ -25966,7 +25972,7 @@
       <c r="F563" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G563" s="4">
+      <c r="G563" s="5">
         <v>46609</v>
       </c>
       <c r="H563" s="2" t="s">
@@ -25998,7 +26004,7 @@
       <c r="F564" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G564" s="4">
+      <c r="G564" s="5">
         <v>46610</v>
       </c>
       <c r="H564" s="2" t="s">
@@ -26030,7 +26036,7 @@
       <c r="F565" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G565" s="4">
+      <c r="G565" s="5">
         <v>46611</v>
       </c>
       <c r="H565" s="2" t="s">
@@ -26062,7 +26068,7 @@
       <c r="F566" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G566" s="4">
+      <c r="G566" s="5">
         <v>46612</v>
       </c>
       <c r="H566" s="2" t="s">
@@ -26094,7 +26100,7 @@
       <c r="F567" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G567" s="4">
+      <c r="G567" s="5">
         <v>46613</v>
       </c>
       <c r="H567" s="2" t="s">
@@ -26126,7 +26132,7 @@
       <c r="F568" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G568" s="4">
+      <c r="G568" s="5">
         <v>46614</v>
       </c>
       <c r="H568" s="2" t="s">
@@ -26158,7 +26164,7 @@
       <c r="F569" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G569" s="4">
+      <c r="G569" s="5">
         <v>46615</v>
       </c>
       <c r="H569" s="2" t="s">
@@ -26190,7 +26196,7 @@
       <c r="F570" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G570" s="4">
+      <c r="G570" s="5">
         <v>46616</v>
       </c>
       <c r="H570" s="2" t="s">
@@ -26222,7 +26228,7 @@
       <c r="F571" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G571" s="4">
+      <c r="G571" s="5">
         <v>46617</v>
       </c>
       <c r="H571" s="2" t="s">
@@ -26254,7 +26260,7 @@
       <c r="F572" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G572" s="4">
+      <c r="G572" s="5">
         <v>46618</v>
       </c>
       <c r="H572" s="2" t="s">
@@ -26286,7 +26292,7 @@
       <c r="F573" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G573" s="4">
+      <c r="G573" s="5">
         <v>46619</v>
       </c>
       <c r="H573" s="2" t="s">
@@ -26318,7 +26324,7 @@
       <c r="F574" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G574" s="4">
+      <c r="G574" s="5">
         <v>46620</v>
       </c>
       <c r="H574" s="2" t="s">
@@ -26350,7 +26356,7 @@
       <c r="F575" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G575" s="4">
+      <c r="G575" s="5">
         <v>46621</v>
       </c>
       <c r="H575" s="2" t="s">
@@ -26382,7 +26388,7 @@
       <c r="F576" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G576" s="4">
+      <c r="G576" s="5">
         <v>46622</v>
       </c>
       <c r="H576" s="2" t="s">
@@ -26414,7 +26420,7 @@
       <c r="F577" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G577" s="4">
+      <c r="G577" s="5">
         <v>46623</v>
       </c>
       <c r="H577" s="2" t="s">
@@ -26446,7 +26452,7 @@
       <c r="F578" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G578" s="4">
+      <c r="G578" s="5">
         <v>46624</v>
       </c>
       <c r="H578" s="2" t="s">
@@ -26478,7 +26484,7 @@
       <c r="F579" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G579" s="4">
+      <c r="G579" s="5">
         <v>46625</v>
       </c>
       <c r="H579" s="2" t="s">
@@ -26510,7 +26516,7 @@
       <c r="F580" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G580" s="4">
+      <c r="G580" s="5">
         <v>46626</v>
       </c>
       <c r="H580" s="2" t="s">
@@ -26542,7 +26548,7 @@
       <c r="F581" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G581" s="4">
+      <c r="G581" s="5">
         <v>46627</v>
       </c>
       <c r="H581" s="2" t="s">
@@ -26574,7 +26580,7 @@
       <c r="F582" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G582" s="4">
+      <c r="G582" s="5">
         <v>46628</v>
       </c>
       <c r="H582" s="2" t="s">
@@ -26606,7 +26612,7 @@
       <c r="F583" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G583" s="4">
+      <c r="G583" s="5">
         <v>46629</v>
       </c>
       <c r="H583" s="2" t="s">
@@ -26638,7 +26644,7 @@
       <c r="F584" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G584" s="4">
+      <c r="G584" s="5">
         <v>46630</v>
       </c>
       <c r="H584" s="2" t="s">
@@ -26670,7 +26676,7 @@
       <c r="F585" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G585" s="4">
+      <c r="G585" s="5">
         <v>46631</v>
       </c>
       <c r="H585" s="2" t="s">
@@ -26702,7 +26708,7 @@
       <c r="F586" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G586" s="4">
+      <c r="G586" s="5">
         <v>46632</v>
       </c>
       <c r="H586" s="2" t="s">
@@ -26734,7 +26740,7 @@
       <c r="F587" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G587" s="4">
+      <c r="G587" s="5">
         <v>46633</v>
       </c>
       <c r="H587" s="2" t="s">
@@ -26766,7 +26772,7 @@
       <c r="F588" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G588" s="4">
+      <c r="G588" s="5">
         <v>46634</v>
       </c>
       <c r="H588" s="2" t="s">
@@ -26798,7 +26804,7 @@
       <c r="F589" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G589" s="4">
+      <c r="G589" s="5">
         <v>46635</v>
       </c>
       <c r="H589" s="2" t="s">
@@ -26830,7 +26836,7 @@
       <c r="F590" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G590" s="4">
+      <c r="G590" s="5">
         <v>46636</v>
       </c>
       <c r="H590" s="2" t="s">
@@ -26862,7 +26868,7 @@
       <c r="F591" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G591" s="4">
+      <c r="G591" s="5">
         <v>46637</v>
       </c>
       <c r="H591" s="2" t="s">
@@ -26894,7 +26900,7 @@
       <c r="F592" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G592" s="4">
+      <c r="G592" s="5">
         <v>46638</v>
       </c>
       <c r="H592" s="2" t="s">
@@ -26926,7 +26932,7 @@
       <c r="F593" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G593" s="4">
+      <c r="G593" s="5">
         <v>46639</v>
       </c>
       <c r="H593" s="2" t="s">
@@ -26958,7 +26964,7 @@
       <c r="F594" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G594" s="4">
+      <c r="G594" s="5">
         <v>46640</v>
       </c>
       <c r="H594" s="2" t="s">
@@ -26990,7 +26996,7 @@
       <c r="F595" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G595" s="4">
+      <c r="G595" s="5">
         <v>46641</v>
       </c>
       <c r="H595" s="2" t="s">
@@ -27022,7 +27028,7 @@
       <c r="F596" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G596" s="4">
+      <c r="G596" s="5">
         <v>46642</v>
       </c>
       <c r="H596" s="2" t="s">
@@ -27054,7 +27060,7 @@
       <c r="F597" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G597" s="4">
+      <c r="G597" s="5">
         <v>46643</v>
       </c>
       <c r="H597" s="2" t="s">
@@ -27086,7 +27092,7 @@
       <c r="F598" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G598" s="4">
+      <c r="G598" s="5">
         <v>46644</v>
       </c>
       <c r="H598" s="2" t="s">
@@ -27118,7 +27124,7 @@
       <c r="F599" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G599" s="4">
+      <c r="G599" s="5">
         <v>46645</v>
       </c>
       <c r="H599" s="2" t="s">
@@ -27150,7 +27156,7 @@
       <c r="F600" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G600" s="4">
+      <c r="G600" s="5">
         <v>46646</v>
       </c>
       <c r="H600" s="2" t="s">
@@ -27182,7 +27188,7 @@
       <c r="F601" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G601" s="4">
+      <c r="G601" s="5">
         <v>46647</v>
       </c>
       <c r="H601" s="2" t="s">
@@ -27214,7 +27220,7 @@
       <c r="F602" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G602" s="4">
+      <c r="G602" s="5">
         <v>46648</v>
       </c>
       <c r="H602" s="2" t="s">
@@ -27246,7 +27252,7 @@
       <c r="F603" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G603" s="4">
+      <c r="G603" s="5">
         <v>46649</v>
       </c>
       <c r="H603" s="2" t="s">
@@ -27278,7 +27284,7 @@
       <c r="F604" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G604" s="4">
+      <c r="G604" s="5">
         <v>46650</v>
       </c>
       <c r="H604" s="2" t="s">
@@ -27310,7 +27316,7 @@
       <c r="F605" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G605" s="4">
+      <c r="G605" s="5">
         <v>46651</v>
       </c>
       <c r="H605" s="2" t="s">
@@ -27342,7 +27348,7 @@
       <c r="F606" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G606" s="4">
+      <c r="G606" s="5">
         <v>46652</v>
       </c>
       <c r="H606" s="2" t="s">
@@ -27374,7 +27380,7 @@
       <c r="F607" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G607" s="4">
+      <c r="G607" s="5">
         <v>46653</v>
       </c>
       <c r="H607" s="2" t="s">
@@ -27406,7 +27412,7 @@
       <c r="F608" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G608" s="4">
+      <c r="G608" s="5">
         <v>46654</v>
       </c>
       <c r="H608" s="2" t="s">
@@ -27438,7 +27444,7 @@
       <c r="F609" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G609" s="4">
+      <c r="G609" s="5">
         <v>46655</v>
       </c>
       <c r="H609" s="2" t="s">
@@ -27470,7 +27476,7 @@
       <c r="F610" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G610" s="4">
+      <c r="G610" s="5">
         <v>46656</v>
       </c>
       <c r="H610" s="2" t="s">
@@ -27502,7 +27508,7 @@
       <c r="F611" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G611" s="4">
+      <c r="G611" s="5">
         <v>46657</v>
       </c>
       <c r="H611" s="2" t="s">
@@ -27534,7 +27540,7 @@
       <c r="F612" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G612" s="4">
+      <c r="G612" s="5">
         <v>46658</v>
       </c>
       <c r="H612" s="2" t="s">
@@ -27566,7 +27572,7 @@
       <c r="F613" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G613" s="4">
+      <c r="G613" s="5">
         <v>46659</v>
       </c>
       <c r="H613" s="2" t="s">
@@ -27598,7 +27604,7 @@
       <c r="F614" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G614" s="4">
+      <c r="G614" s="5">
         <v>46660</v>
       </c>
       <c r="H614" s="2" t="s">
@@ -27630,7 +27636,7 @@
       <c r="F615" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G615" s="4">
+      <c r="G615" s="5">
         <v>46661</v>
       </c>
       <c r="H615" s="2" t="s">
@@ -27662,7 +27668,7 @@
       <c r="F616" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G616" s="4">
+      <c r="G616" s="5">
         <v>46662</v>
       </c>
       <c r="H616" s="2" t="s">
@@ -27694,7 +27700,7 @@
       <c r="F617" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G617" s="4">
+      <c r="G617" s="5">
         <v>46663</v>
       </c>
       <c r="H617" s="2" t="s">
@@ -27726,7 +27732,7 @@
       <c r="F618" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G618" s="4">
+      <c r="G618" s="5">
         <v>46664</v>
       </c>
       <c r="H618" s="2" t="s">
@@ -27758,7 +27764,7 @@
       <c r="F619" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G619" s="4">
+      <c r="G619" s="5">
         <v>46665</v>
       </c>
       <c r="H619" s="2" t="s">
@@ -27790,7 +27796,7 @@
       <c r="F620" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G620" s="4">
+      <c r="G620" s="5">
         <v>46666</v>
       </c>
       <c r="H620" s="2" t="s">
@@ -27822,7 +27828,7 @@
       <c r="F621" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G621" s="4">
+      <c r="G621" s="5">
         <v>46667</v>
       </c>
       <c r="H621" s="2" t="s">
@@ -27854,7 +27860,7 @@
       <c r="F622" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G622" s="4">
+      <c r="G622" s="5">
         <v>46668</v>
       </c>
       <c r="H622" s="2" t="s">
@@ -27886,7 +27892,7 @@
       <c r="F623" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G623" s="4">
+      <c r="G623" s="5">
         <v>46669</v>
       </c>
       <c r="H623" s="2" t="s">
@@ -27918,7 +27924,7 @@
       <c r="F624" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G624" s="4">
+      <c r="G624" s="5">
         <v>46670</v>
       </c>
       <c r="H624" s="2" t="s">
@@ -27950,7 +27956,7 @@
       <c r="F625" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G625" s="4">
+      <c r="G625" s="5">
         <v>46671</v>
       </c>
       <c r="H625" s="2" t="s">
@@ -27982,7 +27988,7 @@
       <c r="F626" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G626" s="4">
+      <c r="G626" s="5">
         <v>46672</v>
       </c>
       <c r="H626" s="2" t="s">
@@ -28014,7 +28020,7 @@
       <c r="F627" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G627" s="4">
+      <c r="G627" s="5">
         <v>46673</v>
       </c>
       <c r="H627" s="2" t="s">
@@ -28046,7 +28052,7 @@
       <c r="F628" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G628" s="4">
+      <c r="G628" s="5">
         <v>46674</v>
       </c>
       <c r="H628" s="2" t="s">
@@ -28078,7 +28084,7 @@
       <c r="F629" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G629" s="4">
+      <c r="G629" s="5">
         <v>46675</v>
       </c>
       <c r="H629" s="2" t="s">
@@ -28110,7 +28116,7 @@
       <c r="F630" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G630" s="4">
+      <c r="G630" s="5">
         <v>46676</v>
       </c>
       <c r="H630" s="2" t="s">
@@ -28142,7 +28148,7 @@
       <c r="F631" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G631" s="4">
+      <c r="G631" s="5">
         <v>46677</v>
       </c>
       <c r="H631" s="2" t="s">
@@ -28174,7 +28180,7 @@
       <c r="F632" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G632" s="4">
+      <c r="G632" s="5">
         <v>46678</v>
       </c>
       <c r="H632" s="2" t="s">
@@ -28206,7 +28212,7 @@
       <c r="F633" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G633" s="4">
+      <c r="G633" s="5">
         <v>46679</v>
       </c>
       <c r="H633" s="2" t="s">
@@ -28238,7 +28244,7 @@
       <c r="F634" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G634" s="4">
+      <c r="G634" s="5">
         <v>46680</v>
       </c>
       <c r="H634" s="2" t="s">
@@ -28270,7 +28276,7 @@
       <c r="F635" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G635" s="4">
+      <c r="G635" s="5">
         <v>46681</v>
       </c>
       <c r="H635" s="2" t="s">
@@ -28302,7 +28308,7 @@
       <c r="F636" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G636" s="4">
+      <c r="G636" s="5">
         <v>46682</v>
       </c>
       <c r="H636" s="2" t="s">
@@ -28334,7 +28340,7 @@
       <c r="F637" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G637" s="4">
+      <c r="G637" s="5">
         <v>46683</v>
       </c>
       <c r="H637" s="2" t="s">
@@ -28366,7 +28372,7 @@
       <c r="F638" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G638" s="4">
+      <c r="G638" s="5">
         <v>46684</v>
       </c>
       <c r="H638" s="2" t="s">
@@ -28398,7 +28404,7 @@
       <c r="F639" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G639" s="4">
+      <c r="G639" s="5">
         <v>46685</v>
       </c>
       <c r="H639" s="2" t="s">
@@ -28430,7 +28436,7 @@
       <c r="F640" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G640" s="4">
+      <c r="G640" s="5">
         <v>46686</v>
       </c>
       <c r="H640" s="2" t="s">
@@ -28462,7 +28468,7 @@
       <c r="F641" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G641" s="4">
+      <c r="G641" s="5">
         <v>46687</v>
       </c>
       <c r="H641" s="2" t="s">
@@ -28494,7 +28500,7 @@
       <c r="F642" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G642" s="4">
+      <c r="G642" s="5">
         <v>46688</v>
       </c>
       <c r="H642" s="2" t="s">
@@ -28526,7 +28532,7 @@
       <c r="F643" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G643" s="4">
+      <c r="G643" s="5">
         <v>46689</v>
       </c>
       <c r="H643" s="2" t="s">
@@ -28558,7 +28564,7 @@
       <c r="F644" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G644" s="4">
+      <c r="G644" s="5">
         <v>46690</v>
       </c>
       <c r="H644" s="2" t="s">
@@ -28590,7 +28596,7 @@
       <c r="F645" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G645" s="4">
+      <c r="G645" s="5">
         <v>46691</v>
       </c>
       <c r="H645" s="2" t="s">
@@ -28622,7 +28628,7 @@
       <c r="F646" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G646" s="4">
+      <c r="G646" s="5">
         <v>46692</v>
       </c>
       <c r="H646" s="2" t="s">
@@ -28654,7 +28660,7 @@
       <c r="F647" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G647" s="4">
+      <c r="G647" s="5">
         <v>46693</v>
       </c>
       <c r="H647" s="2" t="s">
@@ -28686,7 +28692,7 @@
       <c r="F648" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G648" s="4">
+      <c r="G648" s="5">
         <v>46694</v>
       </c>
       <c r="H648" s="2" t="s">
@@ -28718,7 +28724,7 @@
       <c r="F649" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G649" s="4">
+      <c r="G649" s="5">
         <v>46695</v>
       </c>
       <c r="H649" s="2" t="s">
@@ -28750,7 +28756,7 @@
       <c r="F650" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G650" s="4">
+      <c r="G650" s="5">
         <v>46696</v>
       </c>
       <c r="H650" s="2" t="s">
@@ -28782,7 +28788,7 @@
       <c r="F651" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G651" s="4">
+      <c r="G651" s="5">
         <v>46697</v>
       </c>
       <c r="H651" s="2" t="s">
@@ -28814,7 +28820,7 @@
       <c r="F652" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G652" s="4">
+      <c r="G652" s="5">
         <v>46698</v>
       </c>
       <c r="H652" s="2" t="s">
@@ -28846,7 +28852,7 @@
       <c r="F653" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G653" s="4">
+      <c r="G653" s="5">
         <v>46699</v>
       </c>
       <c r="H653" s="2" t="s">
@@ -28878,7 +28884,7 @@
       <c r="F654" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G654" s="4">
+      <c r="G654" s="5">
         <v>46700</v>
       </c>
       <c r="H654" s="2" t="s">
@@ -28910,7 +28916,7 @@
       <c r="F655" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G655" s="4">
+      <c r="G655" s="5">
         <v>46701</v>
       </c>
       <c r="H655" s="2" t="s">
@@ -28942,7 +28948,7 @@
       <c r="F656" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G656" s="4">
+      <c r="G656" s="5">
         <v>46702</v>
       </c>
       <c r="H656" s="2" t="s">
@@ -28974,7 +28980,7 @@
       <c r="F657" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G657" s="4">
+      <c r="G657" s="5">
         <v>46703</v>
       </c>
       <c r="H657" s="2" t="s">
@@ -29006,7 +29012,7 @@
       <c r="F658" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G658" s="4">
+      <c r="G658" s="5">
         <v>46704</v>
       </c>
       <c r="H658" s="2" t="s">
@@ -29038,7 +29044,7 @@
       <c r="F659" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G659" s="4">
+      <c r="G659" s="5">
         <v>46705</v>
       </c>
       <c r="H659" s="2" t="s">
@@ -29070,7 +29076,7 @@
       <c r="F660" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G660" s="4">
+      <c r="G660" s="5">
         <v>46706</v>
       </c>
       <c r="H660" s="2" t="s">
@@ -29102,7 +29108,7 @@
       <c r="F661" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G661" s="4">
+      <c r="G661" s="5">
         <v>46707</v>
       </c>
       <c r="H661" s="2" t="s">
@@ -29134,7 +29140,7 @@
       <c r="F662" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G662" s="4">
+      <c r="G662" s="5">
         <v>46708</v>
       </c>
       <c r="H662" s="2" t="s">
@@ -29166,7 +29172,7 @@
       <c r="F663" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G663" s="4">
+      <c r="G663" s="5">
         <v>46709</v>
       </c>
       <c r="H663" s="2" t="s">
@@ -29198,7 +29204,7 @@
       <c r="F664" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G664" s="4">
+      <c r="G664" s="5">
         <v>46710</v>
       </c>
       <c r="H664" s="2" t="s">
@@ -29230,7 +29236,7 @@
       <c r="F665" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G665" s="4">
+      <c r="G665" s="5">
         <v>46711</v>
       </c>
       <c r="H665" s="2" t="s">
@@ -29262,7 +29268,7 @@
       <c r="F666" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G666" s="4">
+      <c r="G666" s="5">
         <v>46712</v>
       </c>
       <c r="H666" s="2" t="s">
@@ -29294,7 +29300,7 @@
       <c r="F667" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G667" s="4">
+      <c r="G667" s="5">
         <v>46713</v>
       </c>
       <c r="H667" s="2" t="s">
@@ -29326,7 +29332,7 @@
       <c r="F668" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G668" s="4">
+      <c r="G668" s="5">
         <v>46714</v>
       </c>
       <c r="H668" s="2" t="s">
@@ -29358,7 +29364,7 @@
       <c r="F669" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G669" s="4">
+      <c r="G669" s="5">
         <v>46715</v>
       </c>
       <c r="H669" s="2" t="s">
@@ -29390,7 +29396,7 @@
       <c r="F670" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G670" s="4">
+      <c r="G670" s="5">
         <v>46716</v>
       </c>
       <c r="H670" s="2" t="s">
@@ -29422,7 +29428,7 @@
       <c r="F671" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G671" s="4">
+      <c r="G671" s="5">
         <v>46717</v>
       </c>
       <c r="H671" s="2" t="s">
@@ -29454,7 +29460,7 @@
       <c r="F672" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G672" s="4">
+      <c r="G672" s="5">
         <v>46718</v>
       </c>
       <c r="H672" s="2" t="s">
@@ -29486,7 +29492,7 @@
       <c r="F673" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G673" s="4">
+      <c r="G673" s="5">
         <v>46719</v>
       </c>
       <c r="H673" s="2" t="s">
@@ -29518,7 +29524,7 @@
       <c r="F674" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G674" s="4">
+      <c r="G674" s="5">
         <v>46720</v>
       </c>
       <c r="H674" s="2" t="s">
@@ -29550,7 +29556,7 @@
       <c r="F675" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G675" s="4">
+      <c r="G675" s="5">
         <v>46721</v>
       </c>
       <c r="H675" s="2" t="s">
@@ -29582,7 +29588,7 @@
       <c r="F676" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G676" s="4">
+      <c r="G676" s="5">
         <v>46722</v>
       </c>
       <c r="H676" s="2" t="s">
@@ -29614,7 +29620,7 @@
       <c r="F677" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G677" s="4">
+      <c r="G677" s="5">
         <v>46723</v>
       </c>
       <c r="H677" s="2" t="s">
@@ -29646,7 +29652,7 @@
       <c r="F678" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G678" s="4">
+      <c r="G678" s="5">
         <v>46724</v>
       </c>
       <c r="H678" s="2" t="s">
@@ -29678,7 +29684,7 @@
       <c r="F679" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G679" s="4">
+      <c r="G679" s="5">
         <v>46725</v>
       </c>
       <c r="H679" s="2" t="s">
@@ -29710,7 +29716,7 @@
       <c r="F680" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G680" s="4">
+      <c r="G680" s="5">
         <v>46726</v>
       </c>
       <c r="H680" s="2" t="s">
@@ -29742,7 +29748,7 @@
       <c r="F681" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G681" s="4">
+      <c r="G681" s="5">
         <v>46727</v>
       </c>
       <c r="H681" s="2" t="s">
@@ -29774,7 +29780,7 @@
       <c r="F682" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G682" s="4">
+      <c r="G682" s="5">
         <v>46728</v>
       </c>
       <c r="H682" s="2" t="s">
@@ -29806,7 +29812,7 @@
       <c r="F683" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G683" s="4">
+      <c r="G683" s="5">
         <v>46729</v>
       </c>
       <c r="H683" s="2" t="s">
@@ -29838,7 +29844,7 @@
       <c r="F684" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G684" s="4">
+      <c r="G684" s="5">
         <v>46730</v>
       </c>
       <c r="H684" s="2" t="s">
@@ -29870,7 +29876,7 @@
       <c r="F685" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G685" s="4">
+      <c r="G685" s="5">
         <v>46731</v>
       </c>
       <c r="H685" s="2" t="s">
@@ -29902,7 +29908,7 @@
       <c r="F686" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G686" s="4">
+      <c r="G686" s="5">
         <v>46732</v>
       </c>
       <c r="H686" s="2" t="s">
@@ -29934,7 +29940,7 @@
       <c r="F687" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G687" s="4">
+      <c r="G687" s="5">
         <v>46733</v>
       </c>
       <c r="H687" s="2" t="s">
@@ -29966,7 +29972,7 @@
       <c r="F688" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G688" s="4">
+      <c r="G688" s="5">
         <v>46734</v>
       </c>
       <c r="H688" s="2" t="s">
@@ -29998,7 +30004,7 @@
       <c r="F689" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G689" s="4">
+      <c r="G689" s="5">
         <v>46735</v>
       </c>
       <c r="H689" s="2" t="s">
@@ -30030,7 +30036,7 @@
       <c r="F690" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G690" s="4">
+      <c r="G690" s="5">
         <v>46736</v>
       </c>
       <c r="H690" s="2" t="s">
@@ -30062,7 +30068,7 @@
       <c r="F691" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G691" s="4">
+      <c r="G691" s="5">
         <v>46737</v>
       </c>
       <c r="H691" s="2" t="s">
@@ -30094,7 +30100,7 @@
       <c r="F692" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G692" s="4">
+      <c r="G692" s="5">
         <v>46738</v>
       </c>
       <c r="H692" s="2" t="s">
@@ -30126,7 +30132,7 @@
       <c r="F693" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G693" s="4">
+      <c r="G693" s="5">
         <v>46739</v>
       </c>
       <c r="H693" s="2" t="s">
@@ -30158,7 +30164,7 @@
       <c r="F694" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G694" s="4">
+      <c r="G694" s="5">
         <v>46740</v>
       </c>
       <c r="H694" s="2" t="s">
@@ -30190,7 +30196,7 @@
       <c r="F695" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G695" s="4">
+      <c r="G695" s="5">
         <v>46741</v>
       </c>
       <c r="H695" s="2" t="s">
@@ -30222,7 +30228,7 @@
       <c r="F696" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G696" s="4">
+      <c r="G696" s="5">
         <v>46742</v>
       </c>
       <c r="H696" s="2" t="s">
@@ -30254,7 +30260,7 @@
       <c r="F697" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G697" s="4">
+      <c r="G697" s="5">
         <v>46743</v>
       </c>
       <c r="H697" s="2" t="s">
@@ -30286,7 +30292,7 @@
       <c r="F698" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G698" s="4">
+      <c r="G698" s="5">
         <v>46744</v>
       </c>
       <c r="H698" s="2" t="s">
@@ -30318,7 +30324,7 @@
       <c r="F699" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G699" s="4">
+      <c r="G699" s="5">
         <v>46745</v>
       </c>
       <c r="H699" s="2" t="s">
@@ -30350,7 +30356,7 @@
       <c r="F700" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G700" s="4">
+      <c r="G700" s="5">
         <v>46746</v>
       </c>
       <c r="H700" s="2" t="s">
@@ -30382,7 +30388,7 @@
       <c r="F701" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G701" s="4">
+      <c r="G701" s="5">
         <v>46747</v>
       </c>
       <c r="H701" s="2" t="s">
@@ -30414,7 +30420,7 @@
       <c r="F702" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G702" s="4">
+      <c r="G702" s="5">
         <v>46748</v>
       </c>
       <c r="H702" s="2" t="s">
@@ -30446,7 +30452,7 @@
       <c r="F703" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G703" s="4">
+      <c r="G703" s="5">
         <v>46749</v>
       </c>
       <c r="H703" s="2" t="s">
@@ -30478,7 +30484,7 @@
       <c r="F704" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G704" s="4">
+      <c r="G704" s="5">
         <v>46750</v>
       </c>
       <c r="H704" s="2" t="s">
@@ -30510,7 +30516,7 @@
       <c r="F705" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G705" s="4">
+      <c r="G705" s="5">
         <v>46751</v>
       </c>
       <c r="H705" s="2" t="s">
@@ -30542,7 +30548,7 @@
       <c r="F706" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G706" s="4">
+      <c r="G706" s="5">
         <v>46752</v>
       </c>
       <c r="H706" s="2" t="s">
@@ -30574,7 +30580,7 @@
       <c r="F707" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G707" s="4">
+      <c r="G707" s="5">
         <v>46753</v>
       </c>
       <c r="H707" s="2" t="s">
@@ -30606,7 +30612,7 @@
       <c r="F708" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G708" s="4">
+      <c r="G708" s="5">
         <v>46754</v>
       </c>
       <c r="H708" s="2" t="s">
@@ -30638,7 +30644,7 @@
       <c r="F709" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G709" s="4">
+      <c r="G709" s="5">
         <v>46755</v>
       </c>
       <c r="H709" s="2" t="s">
@@ -30670,7 +30676,7 @@
       <c r="F710" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G710" s="4">
+      <c r="G710" s="5">
         <v>46756</v>
       </c>
       <c r="H710" s="2" t="s">
@@ -30702,7 +30708,7 @@
       <c r="F711" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G711" s="4">
+      <c r="G711" s="5">
         <v>46757</v>
       </c>
       <c r="H711" s="2" t="s">
@@ -30734,7 +30740,7 @@
       <c r="F712" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G712" s="4">
+      <c r="G712" s="5">
         <v>46758</v>
       </c>
       <c r="H712" s="2" t="s">
@@ -30766,7 +30772,7 @@
       <c r="F713" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G713" s="4">
+      <c r="G713" s="5">
         <v>46759</v>
       </c>
       <c r="H713" s="2" t="s">
@@ -30798,7 +30804,7 @@
       <c r="F714" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G714" s="4">
+      <c r="G714" s="5">
         <v>46760</v>
       </c>
       <c r="H714" s="2" t="s">
@@ -30830,7 +30836,7 @@
       <c r="F715" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G715" s="4">
+      <c r="G715" s="5">
         <v>46761</v>
       </c>
       <c r="H715" s="2" t="s">
@@ -30862,7 +30868,7 @@
       <c r="F716" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G716" s="4">
+      <c r="G716" s="5">
         <v>46762</v>
       </c>
       <c r="H716" s="2" t="s">
@@ -30894,7 +30900,7 @@
       <c r="F717" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G717" s="4">
+      <c r="G717" s="5">
         <v>46763</v>
       </c>
       <c r="H717" s="2" t="s">
@@ -30926,7 +30932,7 @@
       <c r="F718" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G718" s="4">
+      <c r="G718" s="5">
         <v>46764</v>
       </c>
       <c r="H718" s="2" t="s">
@@ -30958,7 +30964,7 @@
       <c r="F719" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G719" s="4">
+      <c r="G719" s="5">
         <v>46765</v>
       </c>
       <c r="H719" s="2" t="s">
@@ -30990,7 +30996,7 @@
       <c r="F720" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G720" s="4">
+      <c r="G720" s="5">
         <v>46766</v>
       </c>
       <c r="H720" s="2" t="s">
@@ -31022,7 +31028,7 @@
       <c r="F721" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G721" s="4">
+      <c r="G721" s="5">
         <v>46767</v>
       </c>
       <c r="H721" s="2" t="s">
@@ -31054,7 +31060,7 @@
       <c r="F722" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G722" s="4">
+      <c r="G722" s="5">
         <v>46768</v>
       </c>
       <c r="H722" s="2" t="s">
@@ -31086,7 +31092,7 @@
       <c r="F723" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G723" s="4">
+      <c r="G723" s="5">
         <v>46769</v>
       </c>
       <c r="H723" s="2" t="s">
@@ -31118,7 +31124,7 @@
       <c r="F724" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G724" s="4">
+      <c r="G724" s="5">
         <v>46770</v>
       </c>
       <c r="H724" s="2" t="s">
@@ -31150,7 +31156,7 @@
       <c r="F725" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G725" s="4">
+      <c r="G725" s="5">
         <v>46771</v>
       </c>
       <c r="H725" s="2" t="s">
@@ -31182,7 +31188,7 @@
       <c r="F726" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G726" s="4">
+      <c r="G726" s="5">
         <v>46772</v>
       </c>
       <c r="H726" s="2" t="s">
@@ -31214,7 +31220,7 @@
       <c r="F727" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G727" s="4">
+      <c r="G727" s="5">
         <v>46773</v>
       </c>
       <c r="H727" s="2" t="s">
@@ -31246,7 +31252,7 @@
       <c r="F728" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G728" s="4">
+      <c r="G728" s="5">
         <v>46774</v>
       </c>
       <c r="H728" s="2" t="s">
@@ -31278,7 +31284,7 @@
       <c r="F729" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G729" s="4">
+      <c r="G729" s="5">
         <v>46775</v>
       </c>
       <c r="H729" s="2" t="s">
@@ -31310,7 +31316,7 @@
       <c r="F730" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G730" s="4">
+      <c r="G730" s="5">
         <v>46776</v>
       </c>
       <c r="H730" s="2" t="s">
@@ -31342,7 +31348,7 @@
       <c r="F731" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G731" s="4">
+      <c r="G731" s="5">
         <v>46777</v>
       </c>
       <c r="H731" s="2" t="s">
@@ -31374,7 +31380,7 @@
       <c r="F732" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G732" s="4">
+      <c r="G732" s="5">
         <v>46778</v>
       </c>
       <c r="H732" s="2" t="s">
@@ -31406,7 +31412,7 @@
       <c r="F733" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G733" s="4">
+      <c r="G733" s="5">
         <v>46779</v>
       </c>
       <c r="H733" s="2" t="s">
@@ -31438,7 +31444,7 @@
       <c r="F734" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G734" s="4">
+      <c r="G734" s="5">
         <v>46780</v>
       </c>
       <c r="H734" s="2" t="s">
@@ -31470,7 +31476,7 @@
       <c r="F735" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G735" s="4">
+      <c r="G735" s="5">
         <v>46781</v>
       </c>
       <c r="H735" s="2" t="s">
@@ -31502,7 +31508,7 @@
       <c r="F736" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G736" s="4">
+      <c r="G736" s="5">
         <v>46782</v>
       </c>
       <c r="H736" s="2" t="s">
@@ -31534,7 +31540,7 @@
       <c r="F737" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G737" s="4">
+      <c r="G737" s="5">
         <v>46783</v>
       </c>
       <c r="H737" s="2" t="s">
@@ -31566,7 +31572,7 @@
       <c r="F738" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G738" s="4">
+      <c r="G738" s="5">
         <v>46784</v>
       </c>
       <c r="H738" s="2" t="s">
@@ -31598,7 +31604,7 @@
       <c r="F739" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G739" s="4">
+      <c r="G739" s="5">
         <v>46785</v>
       </c>
       <c r="H739" s="2" t="s">
@@ -31630,7 +31636,7 @@
       <c r="F740" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G740" s="4">
+      <c r="G740" s="5">
         <v>46786</v>
       </c>
       <c r="H740" s="2" t="s">
@@ -31662,7 +31668,7 @@
       <c r="F741" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G741" s="4">
+      <c r="G741" s="5">
         <v>46787</v>
       </c>
       <c r="H741" s="2" t="s">
@@ -31694,7 +31700,7 @@
       <c r="F742" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G742" s="4">
+      <c r="G742" s="5">
         <v>46788</v>
       </c>
       <c r="H742" s="2" t="s">
@@ -31726,7 +31732,7 @@
       <c r="F743" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G743" s="4">
+      <c r="G743" s="5">
         <v>46789</v>
       </c>
       <c r="H743" s="2" t="s">
@@ -31758,7 +31764,7 @@
       <c r="F744" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G744" s="4">
+      <c r="G744" s="5">
         <v>46790</v>
       </c>
       <c r="H744" s="2" t="s">
@@ -31790,7 +31796,7 @@
       <c r="F745" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G745" s="4">
+      <c r="G745" s="5">
         <v>46791</v>
       </c>
       <c r="H745" s="2" t="s">
@@ -31822,7 +31828,7 @@
       <c r="F746" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G746" s="4">
+      <c r="G746" s="5">
         <v>46792</v>
       </c>
       <c r="H746" s="2" t="s">
@@ -31854,7 +31860,7 @@
       <c r="F747" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G747" s="4">
+      <c r="G747" s="5">
         <v>46793</v>
       </c>
       <c r="H747" s="2" t="s">
@@ -31886,7 +31892,7 @@
       <c r="F748" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G748" s="4">
+      <c r="G748" s="5">
         <v>46794</v>
       </c>
       <c r="H748" s="2" t="s">
@@ -31918,7 +31924,7 @@
       <c r="F749" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G749" s="4">
+      <c r="G749" s="5">
         <v>46795</v>
       </c>
       <c r="H749" s="2" t="s">
@@ -31950,7 +31956,7 @@
       <c r="F750" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G750" s="4">
+      <c r="G750" s="5">
         <v>46796</v>
       </c>
       <c r="H750" s="2" t="s">
@@ -31982,7 +31988,7 @@
       <c r="F751" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G751" s="4">
+      <c r="G751" s="5">
         <v>46797</v>
       </c>
       <c r="H751" s="2" t="s">
@@ -32014,7 +32020,7 @@
       <c r="F752" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G752" s="4">
+      <c r="G752" s="5">
         <v>46798</v>
       </c>
       <c r="H752" s="2" t="s">
@@ -32046,7 +32052,7 @@
       <c r="F753" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G753" s="4">
+      <c r="G753" s="5">
         <v>46799</v>
       </c>
       <c r="H753" s="2" t="s">
@@ -32078,7 +32084,7 @@
       <c r="F754" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G754" s="4">
+      <c r="G754" s="5">
         <v>46800</v>
       </c>
       <c r="H754" s="2" t="s">
@@ -32110,7 +32116,7 @@
       <c r="F755" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G755" s="4">
+      <c r="G755" s="5">
         <v>46801</v>
       </c>
       <c r="H755" s="2" t="s">
@@ -32142,7 +32148,7 @@
       <c r="F756" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G756" s="4">
+      <c r="G756" s="5">
         <v>46802</v>
       </c>
       <c r="H756" s="2" t="s">
@@ -32174,7 +32180,7 @@
       <c r="F757" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G757" s="4">
+      <c r="G757" s="5">
         <v>46803</v>
       </c>
       <c r="H757" s="2" t="s">
@@ -32206,7 +32212,7 @@
       <c r="F758" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G758" s="4">
+      <c r="G758" s="5">
         <v>46804</v>
       </c>
       <c r="H758" s="2" t="s">
@@ -32238,7 +32244,7 @@
       <c r="F759" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G759" s="4">
+      <c r="G759" s="5">
         <v>46805</v>
       </c>
       <c r="H759" s="2" t="s">
@@ -32270,7 +32276,7 @@
       <c r="F760" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G760" s="4">
+      <c r="G760" s="5">
         <v>46806</v>
       </c>
       <c r="H760" s="2" t="s">
@@ -32302,7 +32308,7 @@
       <c r="F761" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G761" s="4">
+      <c r="G761" s="5">
         <v>46807</v>
       </c>
       <c r="H761" s="2" t="s">
@@ -32334,7 +32340,7 @@
       <c r="F762" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G762" s="4">
+      <c r="G762" s="5">
         <v>46808</v>
       </c>
       <c r="H762" s="2" t="s">
@@ -32366,7 +32372,7 @@
       <c r="F763" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G763" s="4">
+      <c r="G763" s="5">
         <v>46809</v>
       </c>
       <c r="H763" s="2" t="s">
@@ -32398,7 +32404,7 @@
       <c r="F764" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G764" s="4">
+      <c r="G764" s="5">
         <v>46810</v>
       </c>
       <c r="H764" s="2" t="s">
@@ -32430,7 +32436,7 @@
       <c r="F765" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G765" s="4">
+      <c r="G765" s="5">
         <v>46811</v>
       </c>
       <c r="H765" s="2" t="s">
@@ -32462,7 +32468,7 @@
       <c r="F766" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G766" s="4">
+      <c r="G766" s="5">
         <v>46812</v>
       </c>
       <c r="H766" s="2" t="s">
@@ -32494,7 +32500,7 @@
       <c r="F767" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G767" s="4">
+      <c r="G767" s="5">
         <v>46813</v>
       </c>
       <c r="H767" s="2" t="s">
@@ -32526,7 +32532,7 @@
       <c r="F768" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G768" s="4">
+      <c r="G768" s="5">
         <v>46814</v>
       </c>
       <c r="H768" s="2" t="s">
@@ -32558,7 +32564,7 @@
       <c r="F769" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G769" s="4">
+      <c r="G769" s="5">
         <v>46815</v>
       </c>
       <c r="H769" s="2" t="s">
@@ -32590,7 +32596,7 @@
       <c r="F770" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G770" s="4">
+      <c r="G770" s="5">
         <v>46816</v>
       </c>
       <c r="H770" s="2" t="s">
@@ -32622,7 +32628,7 @@
       <c r="F771" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G771" s="4">
+      <c r="G771" s="5">
         <v>46817</v>
       </c>
       <c r="H771" s="2" t="s">
@@ -32654,7 +32660,7 @@
       <c r="F772" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G772" s="4">
+      <c r="G772" s="5">
         <v>46818</v>
       </c>
       <c r="H772" s="2" t="s">
@@ -32686,7 +32692,7 @@
       <c r="F773" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G773" s="4">
+      <c r="G773" s="5">
         <v>46819</v>
       </c>
       <c r="H773" s="2" t="s">
@@ -32718,7 +32724,7 @@
       <c r="F774" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G774" s="4">
+      <c r="G774" s="5">
         <v>46820</v>
       </c>
       <c r="H774" s="2" t="s">
@@ -32750,7 +32756,7 @@
       <c r="F775" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G775" s="4">
+      <c r="G775" s="5">
         <v>46821</v>
       </c>
       <c r="H775" s="2" t="s">
@@ -32782,7 +32788,7 @@
       <c r="F776" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G776" s="4">
+      <c r="G776" s="5">
         <v>46822</v>
       </c>
       <c r="H776" s="2" t="s">
@@ -32814,7 +32820,7 @@
       <c r="F777" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G777" s="4">
+      <c r="G777" s="5">
         <v>46823</v>
       </c>
       <c r="H777" s="2" t="s">
@@ -32846,7 +32852,7 @@
       <c r="F778" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G778" s="4">
+      <c r="G778" s="5">
         <v>46824</v>
       </c>
       <c r="H778" s="2" t="s">
@@ -32878,7 +32884,7 @@
       <c r="F779" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G779" s="4">
+      <c r="G779" s="5">
         <v>46825</v>
       </c>
       <c r="H779" s="2" t="s">
@@ -32910,7 +32916,7 @@
       <c r="F780" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G780" s="4">
+      <c r="G780" s="5">
         <v>46826</v>
       </c>
       <c r="H780" s="2" t="s">
@@ -32942,7 +32948,7 @@
       <c r="F781" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G781" s="4">
+      <c r="G781" s="5">
         <v>46827</v>
       </c>
       <c r="H781" s="2" t="s">
@@ -32974,7 +32980,7 @@
       <c r="F782" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G782" s="4">
+      <c r="G782" s="5">
         <v>46828</v>
       </c>
       <c r="H782" s="2" t="s">
@@ -33006,7 +33012,7 @@
       <c r="F783" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G783" s="4">
+      <c r="G783" s="5">
         <v>46829</v>
       </c>
       <c r="H783" s="2" t="s">
@@ -33038,7 +33044,7 @@
       <c r="F784" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G784" s="4">
+      <c r="G784" s="5">
         <v>46830</v>
       </c>
       <c r="H784" s="2" t="s">
@@ -33070,7 +33076,7 @@
       <c r="F785" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G785" s="4">
+      <c r="G785" s="5">
         <v>46831</v>
       </c>
       <c r="H785" s="2" t="s">
@@ -33102,7 +33108,7 @@
       <c r="F786" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G786" s="4">
+      <c r="G786" s="5">
         <v>46832</v>
       </c>
       <c r="H786" s="2" t="s">
@@ -33134,7 +33140,7 @@
       <c r="F787" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G787" s="4">
+      <c r="G787" s="5">
         <v>46833</v>
       </c>
       <c r="H787" s="2" t="s">
@@ -33166,7 +33172,7 @@
       <c r="F788" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G788" s="4">
+      <c r="G788" s="5">
         <v>46834</v>
       </c>
       <c r="H788" s="2" t="s">
@@ -33198,7 +33204,7 @@
       <c r="F789" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G789" s="4">
+      <c r="G789" s="5">
         <v>46835</v>
       </c>
       <c r="H789" s="2" t="s">
@@ -33230,7 +33236,7 @@
       <c r="F790" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G790" s="4">
+      <c r="G790" s="5">
         <v>46836</v>
       </c>
       <c r="H790" s="2" t="s">
@@ -33262,7 +33268,7 @@
       <c r="F791" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G791" s="4">
+      <c r="G791" s="5">
         <v>46837</v>
       </c>
       <c r="H791" s="2" t="s">
@@ -33294,7 +33300,7 @@
       <c r="F792" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G792" s="4">
+      <c r="G792" s="5">
         <v>46838</v>
       </c>
       <c r="H792" s="2" t="s">
@@ -33326,7 +33332,7 @@
       <c r="F793" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G793" s="4">
+      <c r="G793" s="5">
         <v>46839</v>
       </c>
       <c r="H793" s="2" t="s">
@@ -33358,7 +33364,7 @@
       <c r="F794" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G794" s="4">
+      <c r="G794" s="5">
         <v>46840</v>
       </c>
       <c r="H794" s="2" t="s">
@@ -33390,7 +33396,7 @@
       <c r="F795" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G795" s="4">
+      <c r="G795" s="5">
         <v>46841</v>
       </c>
       <c r="H795" s="2" t="s">
@@ -33422,7 +33428,7 @@
       <c r="F796" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G796" s="4">
+      <c r="G796" s="5">
         <v>46842</v>
       </c>
       <c r="H796" s="2" t="s">
@@ -33454,7 +33460,7 @@
       <c r="F797" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G797" s="4">
+      <c r="G797" s="5">
         <v>46843</v>
       </c>
       <c r="H797" s="2" t="s">
@@ -33486,7 +33492,7 @@
       <c r="F798" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G798" s="4">
+      <c r="G798" s="5">
         <v>46844</v>
       </c>
       <c r="H798" s="2" t="s">
@@ -33518,7 +33524,7 @@
       <c r="F799" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G799" s="4">
+      <c r="G799" s="5">
         <v>46845</v>
       </c>
       <c r="H799" s="2" t="s">
@@ -33550,7 +33556,7 @@
       <c r="F800" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G800" s="4">
+      <c r="G800" s="5">
         <v>46846</v>
       </c>
       <c r="H800" s="2" t="s">
@@ -33582,7 +33588,7 @@
       <c r="F801" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G801" s="4">
+      <c r="G801" s="5">
         <v>46847</v>
       </c>
       <c r="H801" s="2" t="s">
@@ -33614,7 +33620,7 @@
       <c r="F802" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G802" s="4">
+      <c r="G802" s="5">
         <v>46848</v>
       </c>
       <c r="H802" s="2" t="s">
@@ -33646,7 +33652,7 @@
       <c r="F803" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G803" s="4">
+      <c r="G803" s="5">
         <v>46849</v>
       </c>
       <c r="H803" s="2" t="s">
@@ -33678,7 +33684,7 @@
       <c r="F804" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G804" s="4">
+      <c r="G804" s="5">
         <v>46850</v>
       </c>
       <c r="H804" s="2" t="s">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -7947,7 +7947,7 @@
   <dimension ref="A1:L804"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="2516">
   <si>
     <t>الرقم الوظيفي</t>
   </si>
@@ -7561,6 +7561,12 @@
   </si>
   <si>
     <t>بكالوريوس قانون</t>
+  </si>
+  <si>
+    <t>20/1/2026</t>
+  </si>
+  <si>
+    <t>123في 20/4/2025</t>
   </si>
 </sst>
 </file>
@@ -7568,7 +7574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="d\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\-mm\-yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -7636,10 +7642,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7946,8 +7952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E211" workbookViewId="0">
+      <selection activeCell="I222" sqref="I222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15028,11 +15034,14 @@
       <c r="F221" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G221" s="5">
-        <v>46267</v>
+      <c r="G221" s="5" t="s">
+        <v>2514</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>2515</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>2508</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -9534,7 +9534,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$7Tp3J3F7lDSjbW8F$cbf4bc6ee5302dc75e318aa87f8b19cd35af94bf7688b7ab1cf0374060ab23de9d585737f786c1eb2d605630c8b650e3ec7b5ccc803dd91b701f42a9c5b3705d</t>
+          <t>scrypt:32768:8:1$0GE8OltKwMaV7c0M$ce80cd2a58465744c22fa995582c647f21296ddb477009f6078eaacb03f5491f24b234f01529a383fe29762c6808ff4529be9b61087f5b241789e8aac1876c3a</t>
         </is>
       </c>
       <c r="L221" t="n">
